--- a/Financial_proyect/Portafolio_Inversion.xlsx
+++ b/Financial_proyect/Portafolio_Inversion.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -82,13 +86,116 @@
   <si>
     <t>Var % Oro</t>
   </si>
+  <si>
+    <t>Indicadores</t>
+  </si>
+  <si>
+    <t>Rentabilidad Diaria</t>
+  </si>
+  <si>
+    <t>Rentabilidad Anual</t>
+  </si>
+  <si>
+    <t>Riesgo diario</t>
+  </si>
+  <si>
+    <t>Riesgo Anual</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Coeficiente de Correlación</t>
+  </si>
+  <si>
+    <t>Riesgo Sistemático</t>
+  </si>
+  <si>
+    <t>Riesgo No sistemático</t>
+  </si>
+  <si>
+    <t>Tasa Libre de Riesgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Sharpe </t>
+  </si>
+  <si>
+    <t>Índice de Treynor</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Var % Cisco</t>
+  </si>
+  <si>
+    <t>Var % IBM</t>
+  </si>
+  <si>
+    <t>Var % Tesla</t>
+  </si>
+  <si>
+    <t>Var % Microsoft</t>
+  </si>
+  <si>
+    <t>Rentabilidad</t>
+  </si>
+  <si>
+    <t>Riesgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riesgo </t>
+  </si>
+  <si>
+    <t>Índice de Sharpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta </t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>Máx Rentabilidad</t>
+  </si>
+  <si>
+    <t>Min Riesgo</t>
+  </si>
+  <si>
+    <t>RENT 17,82%</t>
+  </si>
+  <si>
+    <t>RENT 29,89%</t>
+  </si>
+  <si>
+    <t>RENT 41,96%</t>
+  </si>
+  <si>
+    <t>RENT 54,02%</t>
+  </si>
+  <si>
+    <t>RENT 66,09%</t>
+  </si>
+  <si>
+    <t>RENT 78,16%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.0000000%"/>
+    <numFmt numFmtId="170" formatCode="0.00000%"/>
+    <numFmt numFmtId="171" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -131,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -165,12 +272,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,8 +395,145 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -200,6 +548,103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Portafolio"/>
+      <sheetName val="Microsoft"/>
+      <sheetName val="Tesla"/>
+      <sheetName val="Cisco"/>
+      <sheetName val="IBM"/>
+      <sheetName val="Google"/>
+      <sheetName val="VaR de Tesla"/>
+      <sheetName val="EWMA - Tesla"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="26">
+          <cell r="V26" t="str">
+            <v>Rentabilidad</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="U27">
+            <v>1.5778894278876021E-2</v>
+          </cell>
+          <cell r="V27">
+            <v>5.759800833148887E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="U28">
+            <v>1.73466433670455E-2</v>
+          </cell>
+          <cell r="V28">
+            <v>0.1782677108747473</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="U29">
+            <v>2.0503972955245999E-2</v>
+          </cell>
+          <cell r="V29">
+            <v>0.29893741341800573</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="U30">
+            <v>2.4452630439297147E-2</v>
+          </cell>
+          <cell r="V30">
+            <v>0.41960711596126415</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="U31">
+            <v>2.9066290699926788E-2</v>
+          </cell>
+          <cell r="V31">
+            <v>0.54027681850452258</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="U32">
+            <v>3.4016121309713987E-2</v>
+          </cell>
+          <cell r="V32">
+            <v>0.66094652104778107</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="U33">
+            <v>3.9171752607492311E-2</v>
+          </cell>
+          <cell r="V33">
+            <v>0.78161622359103955</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="U34">
+            <v>4.4586756208208136E-2</v>
+          </cell>
+          <cell r="V34">
+            <v>0.90228592613429803</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,6 +1021,7 @@
       <c r="J2" s="3">
         <v>1710.85</v>
       </c>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -17580,4 +18026,2195 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="10" t="e">
+        <f t="shared" ref="E3:I3" si="0">AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="10" t="e">
+        <f t="shared" ref="F3:J3" si="1">AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G3" s="10" t="e">
+        <f t="shared" ref="G3:K3" si="2">AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H3" s="10" t="e">
+        <f t="shared" ref="H3:K3" si="3">AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I3" s="10" t="e">
+        <f t="shared" ref="I3:L3" si="4">AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J3" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K3" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L3" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="12" t="e">
+        <f>(1+D3)^270-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="12" t="e">
+        <f t="shared" ref="E4:I4" si="5">(1+E3)^270-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="12" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="12" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H4" s="12" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I4" s="12" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J4" s="12" t="e">
+        <f t="shared" ref="J4:L4" si="6">(1+J3)^270-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K4" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L4" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="12" t="e">
+        <f>_xlfn.STDEV.P(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="12" t="e">
+        <f t="shared" ref="E5:I5" si="7">_xlfn.STDEV.P(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F5" s="12" t="e">
+        <f t="shared" ref="F5:J5" si="8">_xlfn.STDEV.P(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="12" t="e">
+        <f t="shared" ref="G5:K5" si="9">_xlfn.STDEV.P(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H5" s="12" t="e">
+        <f t="shared" ref="H5:K5" si="10">_xlfn.STDEV.P(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I5" s="12" t="e">
+        <f t="shared" ref="I5:L5" si="11">_xlfn.STDEV.P(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J5" s="12" t="e">
+        <f t="shared" si="11"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K5" s="12" t="e">
+        <f t="shared" si="11"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L5" s="12" t="e">
+        <f t="shared" si="11"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12" t="e">
+        <f>D5*SQRT(270)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="12" t="e">
+        <f t="shared" ref="E6:I6" si="12">E5*SQRT(270)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H6" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I6" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J6" s="12" t="e">
+        <f t="shared" ref="J6:L6" si="13">J5*SQRT(270)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K6" s="12" t="e">
+        <f t="shared" si="13"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L6" s="12" t="e">
+        <f t="shared" si="13"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="13" t="e">
+        <f>ABS(D6/D4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="13" t="e">
+        <f>ABS(E6/E4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="13" t="e">
+        <f t="shared" ref="F7:I7" si="14">ABS(F6/F4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G7" s="13" t="e">
+        <f t="shared" si="14"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H7" s="13" t="e">
+        <f t="shared" si="14"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I7" s="13" t="e">
+        <f t="shared" si="14"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J7" s="13" t="e">
+        <f t="shared" ref="J7:L7" si="15">ABS(J6/J4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K7" s="13" t="e">
+        <f t="shared" si="15"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L7" s="13" t="e">
+        <f t="shared" si="15"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="14" t="e">
+        <f>_xlfn.COVARIANCE.P($I$4:$I$866,#REF!)/_xlfn.VAR.P($I$4:$I$866)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E8" s="14" t="e">
+        <f t="shared" ref="E8:I8" si="16">_xlfn.COVARIANCE.P($I$4:$I$866,#REF!)/_xlfn.VAR.P($I$4:$I$866)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F8" s="14" t="e">
+        <f t="shared" ref="F8:J8" si="17">_xlfn.COVARIANCE.P($I$4:$I$866,#REF!)/_xlfn.VAR.P($I$4:$I$866)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="14" t="e">
+        <f t="shared" ref="G8:K8" si="18">_xlfn.COVARIANCE.P($I$4:$I$866,#REF!)/_xlfn.VAR.P($I$4:$I$866)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="14" t="e">
+        <f t="shared" ref="H8:K8" si="19">_xlfn.COVARIANCE.P($I$4:$I$866,#REF!)/_xlfn.VAR.P($I$4:$I$866)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I8" s="14" t="e">
+        <f t="shared" ref="I8:L8" si="20">_xlfn.COVARIANCE.P($I$4:$I$866,#REF!)/_xlfn.VAR.P($I$4:$I$866)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J8" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K8" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L8" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="15" t="e">
+        <f>CORREL($I$4:$I$866,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="15" t="e">
+        <f>CORREL($I$4:$I$866,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="15" t="e">
+        <f>CORREL($I$4:$I$866,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="15" t="e">
+        <f>CORREL($I$4:$I$866,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="15" t="e">
+        <f t="shared" ref="H9:I9" si="21">CORREL($I$4:$I$866,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I9" s="15" t="e">
+        <f t="shared" ref="I9:L9" si="22">CORREL($I$4:$I$866,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J9" s="15" t="e">
+        <f t="shared" si="22"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K9" s="15" t="e">
+        <f t="shared" si="22"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L9" s="15" t="e">
+        <f t="shared" si="22"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="13" t="e">
+        <f>D8^2*_xlfn.VAR.P($I$4:$I$866)/_xlfn.VAR.P(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E10" s="13" t="e">
+        <f>E8^2*_xlfn.VAR.P($I$4:$I$866)/_xlfn.VAR.P(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F10" s="13" t="e">
+        <f t="shared" ref="F10:I10" si="23">F8^2*_xlfn.VAR.P($I$4:$I$866)/_xlfn.VAR.P(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G10" s="13" t="e">
+        <f t="shared" ref="G10:J10" si="24">G8^2*_xlfn.VAR.P($I$4:$I$866)/_xlfn.VAR.P(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H10" s="13" t="e">
+        <f t="shared" ref="H10:K10" si="25">H8^2*_xlfn.VAR.P($I$4:$I$866)/_xlfn.VAR.P(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I10" s="13" t="e">
+        <f t="shared" ref="I10:L10" si="26">I8^2*_xlfn.VAR.P($I$4:$I$866)/_xlfn.VAR.P(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J10" s="13" t="e">
+        <f t="shared" si="26"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K10" s="13" t="e">
+        <f t="shared" si="26"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L10" s="13" t="e">
+        <f t="shared" si="26"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="16" t="e">
+        <f>1-D10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E11" s="16" t="e">
+        <f>1-E10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F11" s="16" t="e">
+        <f>1-F10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G11" s="16" t="e">
+        <f t="shared" ref="G11:I11" si="27">1-G10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H11" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I11" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J11" s="16" t="e">
+        <f t="shared" ref="J11:L11" si="28">1-J10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K11" s="16" t="e">
+        <f t="shared" si="28"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L11" s="16" t="e">
+        <f t="shared" si="28"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="17">
+        <v>3.8989999999999997E-2</v>
+      </c>
+      <c r="E12" s="17">
+        <v>3.8989999999999997E-2</v>
+      </c>
+      <c r="F12" s="17">
+        <v>3.8989999999999997E-2</v>
+      </c>
+      <c r="G12" s="17">
+        <v>3.8989999999999997E-2</v>
+      </c>
+      <c r="H12" s="17">
+        <v>3.8989999999999997E-2</v>
+      </c>
+      <c r="I12" s="17">
+        <v>3.8989999999999997E-2</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1.0389900000000001</v>
+      </c>
+      <c r="K12" s="17">
+        <v>2.0389900000000001</v>
+      </c>
+      <c r="L12" s="17">
+        <v>3.0389900000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="17" t="e">
+        <f>(D4-D12)/D6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E13" s="17" t="e">
+        <f>(E4-E12)/E6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F13" s="17" t="e">
+        <f>(F4-F12)/F6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="17" t="e">
+        <f t="shared" ref="G13:I13" si="29">(G4-G12)/G6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="17" t="e">
+        <f t="shared" si="29"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I13" s="17" t="e">
+        <f t="shared" si="29"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="17" t="e">
+        <f t="shared" ref="J13:L13" si="30">(J4-J12)/J6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K13" s="17" t="e">
+        <f t="shared" si="30"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L13" s="17" t="e">
+        <f t="shared" si="30"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="19" t="e">
+        <f>(D4-D12)/D8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E14" s="19" t="e">
+        <f t="shared" ref="E14:I14" si="31">(E4-E12)/E8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F14" s="19" t="e">
+        <f t="shared" si="31"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="19" t="e">
+        <f t="shared" si="31"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="19" t="e">
+        <f t="shared" si="31"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I14" s="19" t="e">
+        <f t="shared" si="31"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J14" s="19" t="e">
+        <f t="shared" ref="J14:L14" si="32">(J4-J12)/J8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K14" s="19" t="e">
+        <f t="shared" si="32"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L14" s="19" t="e">
+        <f t="shared" si="32"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="20">
+        <f>B19</f>
+        <v>4.2309967829213889E-2</v>
+      </c>
+      <c r="E16" s="20">
+        <f>B20</f>
+        <v>3.6602161261712639E-2</v>
+      </c>
+      <c r="F16" s="20">
+        <f>B21</f>
+        <v>3.6225611297570869E-2</v>
+      </c>
+      <c r="G16" s="20">
+        <f>B22</f>
+        <v>1.3392085615291665E-2</v>
+      </c>
+      <c r="H16" s="20">
+        <f>B23</f>
+        <v>0.85133436836981968</v>
+      </c>
+      <c r="I16" s="20">
+        <f>B24</f>
+        <v>2.0135801036845504E-2</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="21">
+        <f>SUM(B19:B24)</f>
+        <v>0.99999999541045426</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3.2386102818871909E-4</v>
+      </c>
+      <c r="E18" s="11">
+        <v>2.3039325985357105E-4</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1.7699553495874524E-4</v>
+      </c>
+      <c r="G18" s="22">
+        <v>3.2828247275174807E-4</v>
+      </c>
+      <c r="H18" s="11">
+        <v>5.0359077952696093E-4</v>
+      </c>
+      <c r="I18" s="6">
+        <v>3.4454689956896298E-4</v>
+      </c>
+      <c r="J18" s="23" t="e">
+        <f>D4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K18" s="24" t="e">
+        <f>D8</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="25">
+        <v>4.2309967829213889E-2</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="11">
+        <v>2.3039325985357105E-4</v>
+      </c>
+      <c r="E19" s="11">
+        <v>3.6939866058534663E-4</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2.1424890987187991E-4</v>
+      </c>
+      <c r="G19" s="26">
+        <v>2.319242335731307E-4</v>
+      </c>
+      <c r="H19" s="11">
+        <v>2.3960956466516253E-4</v>
+      </c>
+      <c r="I19" s="6">
+        <v>2.534710055511346E-4</v>
+      </c>
+      <c r="J19" s="23" t="e">
+        <f>E4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K19" s="24" t="e">
+        <f>E8</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="25">
+        <v>3.6602161261712639E-2</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1.7699553495874524E-4</v>
+      </c>
+      <c r="E20" s="11">
+        <v>2.1424890987187991E-4</v>
+      </c>
+      <c r="F20" s="11">
+        <v>3.4202845978806957E-4</v>
+      </c>
+      <c r="G20" s="26">
+        <v>1.7158508959452546E-4</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1.7398076653148335E-4</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1.8127983112415619E-4</v>
+      </c>
+      <c r="J20" s="23" t="e">
+        <f>F4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K20" s="27" t="e">
+        <f>F8</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="25">
+        <v>3.6225611297570869E-2</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="11">
+        <v>3.2828247275174807E-4</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2.319242335731307E-4</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1.7158508959452546E-4</v>
+      </c>
+      <c r="G21" s="26">
+        <v>4.7340096400834203E-4</v>
+      </c>
+      <c r="H21" s="11">
+        <v>4.2787215289800848E-4</v>
+      </c>
+      <c r="I21" s="6">
+        <v>3.7817165286242244E-4</v>
+      </c>
+      <c r="J21" s="23" t="e">
+        <f>G4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K21" s="27" t="e">
+        <f>G8</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="25">
+        <v>1.3392085615291665E-2</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="11">
+        <v>5.0359077952696093E-4</v>
+      </c>
+      <c r="E22" s="11">
+        <v>2.3960956466516253E-4</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1.7398076653148335E-4</v>
+      </c>
+      <c r="G22" s="26">
+        <v>4.2787215289800848E-4</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1.9879788291701848E-3</v>
+      </c>
+      <c r="I22" s="6">
+        <v>4.691410725479059E-4</v>
+      </c>
+      <c r="J22" s="23" t="e">
+        <f>H4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K22" s="24" t="e">
+        <f>H8</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="25">
+        <v>0.85133436836981968</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="18">
+        <v>3.4454689956896293E-4</v>
+      </c>
+      <c r="E23" s="18">
+        <v>2.534710055511346E-4</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1.8127983112415619E-4</v>
+      </c>
+      <c r="G23" s="28">
+        <v>3.7817165286242244E-4</v>
+      </c>
+      <c r="H23" s="18">
+        <v>4.691410725479059E-4</v>
+      </c>
+      <c r="I23" s="29">
+        <v>4.6203795124722167E-4</v>
+      </c>
+      <c r="J23" s="30" t="e">
+        <f>I4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K23" s="31" t="e">
+        <f>I8</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="25">
+        <v>2.0135801036845504E-2</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6">
+        <f>SUMPRODUCT(D18:D23,$P$19:$P$24)*D16</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" ref="E24:I24" si="33">SUMPRODUCT(E18:E23,$P$19:$P$24)*E16</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <f>SUMPRODUCT(F18:F23,$P$19:$P$24)*F16</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="33" t="e">
+        <f>SUMPRODUCT(B19:B24,J18:J23)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="38">
+        <f>SQRT(SUM(D24:I24))</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="22">
+        <v>1</v>
+      </c>
+      <c r="G27" s="39">
+        <f>E44</f>
+        <v>1.5778894278876021E-2</v>
+      </c>
+      <c r="H27" s="40">
+        <f>+E43</f>
+        <v>5.759800833148887E-2</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="4" t="e">
+        <f>(D26-D12)/D27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="26">
+        <v>2</v>
+      </c>
+      <c r="G28" s="41">
+        <v>1.73466433670455E-2</v>
+      </c>
+      <c r="H28" s="42">
+        <f t="shared" ref="H28:H34" si="34">H27+($R$43-$S$43)/7</f>
+        <v>5.759800833148887E-2</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="11" t="e">
+        <f>SUMPRODUCT(B19:B24,K18:K23)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="26">
+        <v>3</v>
+      </c>
+      <c r="G29" s="41">
+        <v>2.0503972955245999E-2</v>
+      </c>
+      <c r="H29" s="42">
+        <f t="shared" si="34"/>
+        <v>5.759800833148887E-2</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="18" t="e">
+        <f>(D26-D12)/D29</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="26">
+        <v>4</v>
+      </c>
+      <c r="G30" s="41">
+        <v>2.4452630439297147E-2</v>
+      </c>
+      <c r="H30" s="42">
+        <f t="shared" si="34"/>
+        <v>5.759800833148887E-2</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="26">
+        <v>5</v>
+      </c>
+      <c r="G31" s="41">
+        <v>2.9066290699926788E-2</v>
+      </c>
+      <c r="H31" s="42">
+        <f t="shared" si="34"/>
+        <v>5.759800833148887E-2</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="26">
+        <v>6</v>
+      </c>
+      <c r="G32" s="41">
+        <v>3.4016121309713987E-2</v>
+      </c>
+      <c r="H32" s="42">
+        <f t="shared" si="34"/>
+        <v>5.759800833148887E-2</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="26">
+        <v>7</v>
+      </c>
+      <c r="G33" s="41">
+        <v>3.9171752607492311E-2</v>
+      </c>
+      <c r="H33" s="42">
+        <f t="shared" si="34"/>
+        <v>5.759800833148887E-2</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="28">
+        <v>8</v>
+      </c>
+      <c r="G34" s="46">
+        <f>+D44</f>
+        <v>4.4586756208208136E-2</v>
+      </c>
+      <c r="H34" s="47">
+        <f t="shared" si="34"/>
+        <v>5.759800833148887E-2</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="37" t="str">
+        <f t="shared" ref="C37:C42" si="35">MID(C18,6,20)</f>
+        <v xml:space="preserve"> Nasdaq</v>
+      </c>
+      <c r="D37" s="49">
+        <v>0</v>
+      </c>
+      <c r="E37" s="49">
+        <v>0.42421261791303044</v>
+      </c>
+      <c r="F37" s="49">
+        <v>0.24099802933843645</v>
+      </c>
+      <c r="G37" s="49">
+        <v>0.28297080893440879</v>
+      </c>
+      <c r="H37" s="49">
+        <v>0.1535807291527424</v>
+      </c>
+      <c r="I37" s="49">
+        <v>0.12256443897012619</v>
+      </c>
+      <c r="J37" s="49">
+        <v>8.5716918357413213E-2</v>
+      </c>
+      <c r="K37" s="49">
+        <v>4.2309967829213889E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="37" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve"> Cisco</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0.18011915998551412</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0.17942474721933963</v>
+      </c>
+      <c r="G38" s="16">
+        <v>0.17878207246460881</v>
+      </c>
+      <c r="H38" s="16">
+        <v>0.16982342632460842</v>
+      </c>
+      <c r="I38" s="16">
+        <v>0.12644081916252153</v>
+      </c>
+      <c r="J38" s="16">
+        <v>8.1580955944500738E-2</v>
+      </c>
+      <c r="K38" s="16">
+        <v>3.6602161261712639E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="37" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve"> IBM</v>
+      </c>
+      <c r="D39" s="16">
+        <v>0</v>
+      </c>
+      <c r="E39" s="16">
+        <v>0.39566822210145547</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0.39240740840725546</v>
+      </c>
+      <c r="G39" s="16">
+        <v>0.21989030715449021</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0.20670250563712311</v>
+      </c>
+      <c r="I39" s="16">
+        <v>0.14264936228729111</v>
+      </c>
+      <c r="J39" s="16">
+        <v>8.5744217607902393E-2</v>
+      </c>
+      <c r="K39" s="16">
+        <v>3.6225611297570869E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="37" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve"> Google</v>
+      </c>
+      <c r="D40" s="16">
+        <v>0</v>
+      </c>
+      <c r="E40" s="16">
+        <v>0</v>
+      </c>
+      <c r="F40" s="16">
+        <v>1.4960661921451306E-2</v>
+      </c>
+      <c r="G40" s="16">
+        <v>1.5238590738042835E-2</v>
+      </c>
+      <c r="H40" s="16">
+        <v>1.5284082960186123E-2</v>
+      </c>
+      <c r="I40" s="16">
+        <v>1.5007806890385205E-2</v>
+      </c>
+      <c r="J40" s="16">
+        <v>1.4510915062719782E-2</v>
+      </c>
+      <c r="K40" s="16">
+        <v>1.3392085615291665E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="37" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve"> Tesla</v>
+      </c>
+      <c r="D41" s="16">
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="E41" s="16">
+        <v>0</v>
+      </c>
+      <c r="F41" s="16">
+        <v>0.14869968381484253</v>
+      </c>
+      <c r="G41" s="16">
+        <v>0.27875851398962775</v>
+      </c>
+      <c r="H41" s="16">
+        <v>0.43006686945295353</v>
+      </c>
+      <c r="I41" s="16">
+        <v>0.56946200102008704</v>
+      </c>
+      <c r="J41" s="16">
+        <v>0.70974861655770316</v>
+      </c>
+      <c r="K41" s="16">
+        <v>0.85133436836981968</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="37" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve"> Microsoft</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16">
+        <v>2.3509469298677657E-2</v>
+      </c>
+      <c r="G42" s="16">
+        <v>2.4359708736133728E-2</v>
+      </c>
+      <c r="H42" s="16">
+        <v>2.4542385649284862E-2</v>
+      </c>
+      <c r="I42" s="16">
+        <v>2.387556306412443E-2</v>
+      </c>
+      <c r="J42" s="16">
+        <v>2.269837225941156E-2</v>
+      </c>
+      <c r="K42" s="16">
+        <v>2.0135801036845504E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="50">
+        <v>0.90228592613429792</v>
+      </c>
+      <c r="E43" s="50">
+        <v>5.759800833148887E-2</v>
+      </c>
+      <c r="F43" s="50">
+        <v>0.17826771087474658</v>
+      </c>
+      <c r="G43" s="50">
+        <v>0.29893759168571682</v>
+      </c>
+      <c r="H43" s="50">
+        <v>0.41960741489885567</v>
+      </c>
+      <c r="I43" s="50">
+        <v>0.54027723811193784</v>
+      </c>
+      <c r="J43" s="50">
+        <v>0.6609470613250189</v>
+      </c>
+      <c r="K43" s="50">
+        <v>0.7816168845381013</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="50">
+        <v>4.4586756208208136E-2</v>
+      </c>
+      <c r="E44" s="50">
+        <v>1.5778894278876021E-2</v>
+      </c>
+      <c r="F44" s="50">
+        <v>1.73466433670455E-2</v>
+      </c>
+      <c r="G44" s="50">
+        <v>2.0503972955245999E-2</v>
+      </c>
+      <c r="H44" s="50">
+        <v>2.4452630439297147E-2</v>
+      </c>
+      <c r="I44" s="50">
+        <v>2.9066290699926788E-2</v>
+      </c>
+      <c r="J44" s="50">
+        <v>3.4016121309713987E-2</v>
+      </c>
+      <c r="K44" s="50">
+        <v>3.9171752607492311E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="11">
+        <v>19.362160416042347</v>
+      </c>
+      <c r="E45" s="11">
+        <v>1.1792973577622816</v>
+      </c>
+      <c r="F45" s="11">
+        <v>8.0290871223732516</v>
+      </c>
+      <c r="G45" s="11">
+        <v>12.677913312366529</v>
+      </c>
+      <c r="H45" s="11">
+        <v>15.565499828074772</v>
+      </c>
+      <c r="I45" s="11">
+        <v>17.24634365241522</v>
+      </c>
+      <c r="J45" s="11">
+        <v>18.284185185669791</v>
+      </c>
+      <c r="K45" s="11">
+        <v>18.958224616073483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="11">
+        <v>1.5549594909379174</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0.76858794980131817</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0.85449524519357234</v>
+      </c>
+      <c r="G46" s="11">
+        <v>1.0051497943517274</v>
+      </c>
+      <c r="H46" s="11">
+        <v>1.0976980393798448</v>
+      </c>
+      <c r="I46" s="11">
+        <v>1.2165777534679831</v>
+      </c>
+      <c r="J46" s="11">
+        <v>1.3331014531775369</v>
+      </c>
+      <c r="K46" s="11">
+        <v>1.446933791355884</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="18">
+        <v>0.55518869215916156</v>
+      </c>
+      <c r="E47" s="18">
+        <v>2.4210642824024353E-2</v>
+      </c>
+      <c r="F47" s="18">
+        <v>0.1629941321009872</v>
+      </c>
+      <c r="G47" s="18">
+        <v>0.25861577363538168</v>
+      </c>
+      <c r="H47" s="18">
+        <v>0.34674145461158812</v>
+      </c>
+      <c r="I47" s="18">
+        <v>0.41204702016206179</v>
+      </c>
+      <c r="J47" s="18">
+        <v>0.46654893357331695</v>
+      </c>
+      <c r="K47" s="18">
+        <v>0.51324178685619404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+    </row>
+    <row r="78" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+    </row>
+    <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+    </row>
+    <row r="81" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+    </row>
+    <row r="82" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+    </row>
+    <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+    </row>
+    <row r="84" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+    </row>
+    <row r="85" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+    </row>
+    <row r="86" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+    </row>
+    <row r="87" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+    </row>
+    <row r="88" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+    </row>
+    <row r="89" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+    </row>
+    <row r="91" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+    </row>
+    <row r="92" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+    </row>
+    <row r="93" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+    </row>
+    <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+    </row>
+    <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+    </row>
+    <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+    </row>
+    <row r="98" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+    </row>
+    <row r="99" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+    </row>
+    <row r="100" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F26:G26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Financial_proyect/Portafolio_Inversion.xlsx
+++ b/Financial_proyect/Portafolio_Inversion.xlsx
@@ -12,9 +12,50 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="DF" sheetId="1" r:id="rId1"/>
+    <sheet name="inversion optima (SOLVER)" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'inversion optima (SOLVER)'!$E$15:$M$15</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,0001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'inversion optima (SOLVER)'!$E$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'inversion optima (SOLVER)'!$E$18</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'inversion optima (SOLVER)'!$E$22</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'inversion optima (SOLVER)'!$H$15</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,075"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'inversion optima (SOLVER)'!$E$27</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,000001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">3%</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">20%</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">5%</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -123,49 +164,50 @@
     <t>Índice de Treynor</t>
   </si>
   <si>
-    <t>Rentabilidad</t>
-  </si>
-  <si>
-    <t>Riesgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riesgo </t>
-  </si>
-  <si>
     <t>Índice de Sharpe</t>
   </si>
   <si>
     <t xml:space="preserve">Beta </t>
   </si>
   <si>
-    <t>Item</t>
+    <t>portafolio</t>
   </si>
   <si>
-    <t>Var % Cisco</t>
+    <t xml:space="preserve">inversion </t>
   </si>
   <si>
-    <t>Var % IBM</t>
+    <t>Riesgo (Diario)</t>
   </si>
   <si>
-    <t>Var % Tesla</t>
+    <t>Riesgo (Anual)</t>
   </si>
   <si>
-    <t>Var % Microsoft</t>
+    <t xml:space="preserve">Inversion </t>
+  </si>
+  <si>
+    <t>Rendimiento (Diario)</t>
+  </si>
+  <si>
+    <t>Rendimiento (Anual)</t>
+  </si>
+  <si>
+    <t>Coeficiente de aversion</t>
+  </si>
+  <si>
+    <t>Utilidad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="8">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000000%"/>
-    <numFmt numFmtId="168" formatCode="0.00000%"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -208,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -276,37 +318,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -325,33 +336,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,58 +396,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -468,15 +411,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -484,25 +418,33 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -790,7 +732,7 @@
   <dimension ref="A1:S252"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17907,23 +17849,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:O251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="6"/>
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -17932,1102 +17878,980 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30">
+        <f>SUMPRODUCT(DF!K3:S3,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.6230216986039535E-2</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <f>SUMPRODUCT(DF!K4:S4,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.0396929919865665E-2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="10">
-        <f>AVERAGE(Hoja1!K3:K252)</f>
+      <c r="E3" s="10">
+        <f>AVERAGE(DF!K3:K252)</f>
         <v>7.0872124567460408E-4</v>
       </c>
-      <c r="E3" s="10">
-        <f>AVERAGE(Hoja1!L3:L252)</f>
+      <c r="F3" s="10">
+        <f>AVERAGE(DF!L3:L252)</f>
         <v>5.1420299801562333E-4</v>
       </c>
-      <c r="F3" s="10">
-        <f>AVERAGE(Hoja1!M3:M252)</f>
+      <c r="G3" s="10">
+        <f>AVERAGE(DF!M3:M252)</f>
         <v>7.3830702292552108E-4</v>
       </c>
-      <c r="G3" s="10">
-        <f>AVERAGE(Hoja1!N3:N252)</f>
+      <c r="H3" s="10">
+        <f>AVERAGE(DF!N3:N252)</f>
         <v>1.0311248077863973E-3</v>
       </c>
-      <c r="H3" s="10">
-        <f>AVERAGE(Hoja1!O3:O252)</f>
+      <c r="I3" s="10">
+        <f>AVERAGE(DF!O3:O252)</f>
         <v>1.1410336772834677E-3</v>
       </c>
-      <c r="I3" s="10">
-        <f>AVERAGE(Hoja1!P3:P252)</f>
+      <c r="J3" s="10">
+        <f>AVERAGE(DF!P3:P252)</f>
         <v>5.3105389832273616E-3</v>
       </c>
-      <c r="J3" s="10">
-        <f>AVERAGE(Hoja1!Q3:Q252)</f>
+      <c r="K3" s="10">
+        <f>AVERAGE(DF!Q3:Q252)</f>
         <v>2.4184620201126277E-4</v>
       </c>
-      <c r="K3" s="10">
-        <f>AVERAGE(Hoja1!R3:R252)</f>
+      <c r="L3" s="10">
+        <f>AVERAGE(DF!R3:R252)</f>
         <v>-2.8777925448496343E-4</v>
       </c>
-      <c r="L3" s="10">
-        <f>AVERAGE(Hoja1!S3:S252)</f>
+      <c r="M3" s="10">
+        <f>AVERAGE(DF!S3:S252)</f>
         <v>2.4740669017002051E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="11" t="s">
+      <c r="N3" s="32"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <f>SUMPRODUCT(DF!K5:S5,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-6.1491587044521269E-3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="12">
-        <f>(1+D3)^250-1</f>
+      <c r="E4" s="12">
+        <f>(1+E3)^250-1</f>
         <v>0.19377141908692108</v>
       </c>
-      <c r="E4" s="12">
-        <f t="shared" ref="E4:L4" si="0">(1+E3)^250-1</f>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:M4" si="0">(1+F3)^250-1</f>
         <v>0.13714156016164636</v>
       </c>
-      <c r="F4" s="12">
+      <c r="G4" s="12">
         <f t="shared" si="0"/>
         <v>0.20262738648348999</v>
       </c>
-      <c r="G4" s="12">
+      <c r="H4" s="12">
         <f t="shared" si="0"/>
         <v>0.29388379736716508</v>
       </c>
-      <c r="H4" s="12">
+      <c r="I4" s="12">
         <f t="shared" si="0"/>
         <v>0.32988942314068304</v>
       </c>
-      <c r="I4" s="43">
+      <c r="J4" s="13">
         <f t="shared" si="0"/>
         <v>2.7588834136544986</v>
       </c>
-      <c r="J4" s="12">
+      <c r="K4" s="12">
         <f t="shared" si="0"/>
         <v>6.2318985254658621E-2</v>
       </c>
-      <c r="K4" s="12">
+      <c r="L4" s="12">
         <f t="shared" si="0"/>
         <v>-6.9427385432114574E-2</v>
       </c>
-      <c r="L4" s="12">
+      <c r="M4" s="12">
         <f t="shared" si="0"/>
         <v>6.3796403531682699E-2</v>
       </c>
-      <c r="N4" s="44">
-        <f>(I4-I8)/I12</f>
-        <v>71.230804114105453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="11" t="s">
+      <c r="N4" s="33"/>
+      <c r="O4" s="25"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <f>SUMPRODUCT(DF!K6:S6,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.4225288230311026E-2</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="12">
-        <f>_xlfn.STDEV.P(Hoja1!K3:K252)</f>
+      <c r="E5" s="12">
+        <f>_xlfn.STDEV.P(DF!K3:K252)</f>
         <v>1.372741004699635E-2</v>
       </c>
-      <c r="E5" s="12">
-        <f>_xlfn.STDEV.P(Hoja1!L3:L252)</f>
+      <c r="F5" s="12">
+        <f>_xlfn.STDEV.P(DF!L3:L252)</f>
         <v>1.0423032135703881E-2</v>
       </c>
-      <c r="F5" s="12">
-        <f>_xlfn.STDEV.P(Hoja1!M3:M252)</f>
+      <c r="G5" s="12">
+        <f>_xlfn.STDEV.P(DF!M3:M252)</f>
         <v>1.7105337287601868E-2</v>
       </c>
-      <c r="G5" s="12">
-        <f>_xlfn.STDEV.P(Hoja1!N3:N252)</f>
+      <c r="H5" s="12">
+        <f>_xlfn.STDEV.P(DF!N3:N252)</f>
         <v>1.9110205076255958E-2</v>
       </c>
-      <c r="H5" s="12">
-        <f>_xlfn.STDEV.P(Hoja1!O3:O252)</f>
+      <c r="I5" s="12">
+        <f>_xlfn.STDEV.P(DF!O3:O252)</f>
         <v>2.1503758284322924E-2</v>
       </c>
-      <c r="I5" s="12">
-        <f>_xlfn.STDEV.P(Hoja1!P3:P252)</f>
+      <c r="J5" s="12">
+        <f>_xlfn.STDEV.P(DF!P3:P252)</f>
         <v>3.2990006877864374E-2</v>
       </c>
-      <c r="J5" s="12">
-        <f>_xlfn.STDEV.P(Hoja1!Q3:Q252)</f>
+      <c r="K5" s="12">
+        <f>_xlfn.STDEV.P(DF!Q3:Q252)</f>
         <v>1.8998178489227083E-2</v>
       </c>
-      <c r="K5" s="12">
-        <f>_xlfn.STDEV.P(Hoja1!R3:R252)</f>
+      <c r="L5" s="12">
+        <f>_xlfn.STDEV.P(DF!R3:R252)</f>
         <v>2.137302179341696E-2</v>
       </c>
-      <c r="L5" s="12">
-        <f>_xlfn.STDEV.P(Hoja1!S3:S252)</f>
+      <c r="M5" s="12">
+        <f>_xlfn.STDEV.P(DF!S3:S252)</f>
         <v>8.7814906070427193E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="11" t="s">
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <f>SUMPRODUCT(DF!K7:S7,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.3917325943808808E-2</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="12">
-        <f>D5*SQRT(250)</f>
+      <c r="E6" s="12">
+        <f>E5*SQRT(250)</f>
         <v>0.21704941061793759</v>
       </c>
-      <c r="E6" s="12">
-        <f t="shared" ref="E6:L6" si="1">E5*SQRT(250)</f>
+      <c r="F6" s="12">
+        <f t="shared" ref="F6:M6" si="1">F5*SQRT(250)</f>
         <v>0.16480260836976746</v>
       </c>
-      <c r="F6" s="12">
+      <c r="G6" s="12">
         <f t="shared" si="1"/>
         <v>0.27045912987114284</v>
       </c>
-      <c r="G6" s="12">
+      <c r="H6" s="12">
         <f t="shared" si="1"/>
         <v>0.30215887296940286</v>
       </c>
-      <c r="H6" s="12">
+      <c r="I6" s="12">
         <f t="shared" si="1"/>
         <v>0.34000427216087548</v>
       </c>
-      <c r="I6" s="12">
+      <c r="J6" s="12">
         <f t="shared" si="1"/>
         <v>0.52161780879335851</v>
       </c>
-      <c r="J6" s="12">
+      <c r="K6" s="12">
         <f t="shared" si="1"/>
         <v>0.30038757710187131</v>
       </c>
-      <c r="K6" s="12">
+      <c r="L6" s="12">
         <f t="shared" si="1"/>
         <v>0.33793714673807179</v>
       </c>
-      <c r="L6" s="12">
+      <c r="M6" s="12">
         <f t="shared" si="1"/>
         <v>0.13884755784814826</v>
       </c>
-      <c r="N6" s="44"/>
-    </row>
-    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="11" t="s">
+      <c r="O6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <f>SUMPRODUCT(DF!K8:S8,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>5.6323714517960526E-3</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="37">
-        <f>ABS(D6/D4)</f>
+      <c r="E7" s="21">
+        <f>ABS(E6/E4)</f>
         <v>1.1201311918997434</v>
-      </c>
-      <c r="E7" s="13">
-        <f>ABS(E6/E4)</f>
-        <v>1.2016970506644193</v>
       </c>
       <c r="F7" s="13">
         <f>ABS(F6/F4)</f>
-        <v>1.3347609845087736</v>
+        <v>1.2016970506644193</v>
       </c>
       <c r="G7" s="13">
         <f>ABS(G6/G4)</f>
+        <v>1.3347609845087736</v>
+      </c>
+      <c r="H7" s="13">
+        <f>ABS(H6/H4)</f>
         <v>1.0281576448799568</v>
       </c>
-      <c r="H7" s="13">
-        <f t="shared" ref="H7:J7" si="2">ABS(H6/H4)</f>
+      <c r="I7" s="13">
+        <f t="shared" ref="I7:K7" si="2">ABS(I6/I4)</f>
         <v>1.0306613316786422</v>
       </c>
-      <c r="I7" s="13">
-        <f>ABS(I6/I4)</f>
+      <c r="J7" s="13">
+        <f>ABS(J6/J4)</f>
         <v>0.18906844929065275</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <f t="shared" si="2"/>
         <v>4.8201615587027868</v>
       </c>
-      <c r="K7" s="13">
-        <f>ABS(K6/K4)</f>
+      <c r="L7" s="13">
+        <f>ABS(L6/L4)</f>
         <v>4.8674906110140563</v>
       </c>
-      <c r="L7" s="13">
-        <f t="shared" ref="L7" si="3">ABS(L6/L4)</f>
+      <c r="M7" s="13">
+        <f t="shared" ref="M7" si="3">ABS(M6/M4)</f>
         <v>2.1764166968941048</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="11" t="s">
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <f>SUMPRODUCT(DF!K9:S9,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.466195496255737E-2</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="14">
-        <f>_xlfn.COVARIANCE.P(Hoja1!$K$3:$K$252,Hoja1!K3:K252)/_xlfn.VAR.P(Hoja1!$K$3:$K$252)</f>
+      <c r="E8" s="14">
+        <f>_xlfn.COVARIANCE.P(DF!$K$3:$K$252,DF!K3:K252)/_xlfn.VAR.P(DF!$K$3:$K$252)</f>
         <v>0.99999999999999767</v>
       </c>
-      <c r="E8" s="14">
-        <f>_xlfn.COVARIANCE.P(Hoja1!$K$3:$K$252,Hoja1!L3:L252)/_xlfn.VAR.P(Hoja1!$K$3:$K$252)</f>
+      <c r="F8" s="14">
+        <f>_xlfn.COVARIANCE.P(DF!$K$3:$K$252,DF!L3:L252)/_xlfn.VAR.P(DF!$K$3:$K$252)</f>
         <v>0.72787841255884778</v>
       </c>
-      <c r="F8" s="14">
-        <f>_xlfn.COVARIANCE.P(Hoja1!$K$3:$K$252,Hoja1!M3:M252)/_xlfn.VAR.P(Hoja1!$K$3:$K$252)</f>
+      <c r="G8" s="14">
+        <f>_xlfn.COVARIANCE.P(DF!$K$3:$K$252,DF!M3:M252)/_xlfn.VAR.P(DF!$K$3:$K$252)</f>
         <v>1.0527189797195944</v>
       </c>
-      <c r="G8" s="14">
-        <f>_xlfn.COVARIANCE.P(Hoja1!$K$3:$K$252,Hoja1!N3:N252)/_xlfn.VAR.P(Hoja1!$K$3:$K$252)</f>
+      <c r="H8" s="14">
+        <f>_xlfn.COVARIANCE.P(DF!$K$3:$K$252,DF!N3:N252)/_xlfn.VAR.P(DF!$K$3:$K$252)</f>
         <v>1.1511798080895561</v>
       </c>
-      <c r="H8" s="14">
-        <f>_xlfn.COVARIANCE.P(Hoja1!$K$3:$K$252,Hoja1!O3:O252)/_xlfn.VAR.P(Hoja1!$K$3:$K$252)</f>
+      <c r="I8" s="14">
+        <f>_xlfn.COVARIANCE.P(DF!$K$3:$K$252,DF!O3:O252)/_xlfn.VAR.P(DF!$K$3:$K$252)</f>
         <v>1.1996989876806246</v>
       </c>
-      <c r="I8" s="43">
-        <f>_xlfn.COVARIANCE.P(Hoja1!$K$3:$K$252,Hoja1!P3:P252)/_xlfn.VAR.P(Hoja1!$K$3:$K$252)</f>
+      <c r="J8" s="24">
+        <f>_xlfn.COVARIANCE.P(DF!$K$3:$K$252,DF!P3:P252)/_xlfn.VAR.P(DF!$K$3:$K$252)</f>
         <v>-1.840563875447308E-2</v>
       </c>
-      <c r="J8" s="14">
-        <f>_xlfn.COVARIANCE.P(Hoja1!$K$3:$K$252,Hoja1!Q3:Q252)/_xlfn.VAR.P(Hoja1!$K$3:$K$252)</f>
+      <c r="K8" s="14">
+        <f>_xlfn.COVARIANCE.P(DF!$K$3:$K$252,DF!Q3:Q252)/_xlfn.VAR.P(DF!$K$3:$K$252)</f>
         <v>0.8071770391780051</v>
       </c>
-      <c r="K8" s="14">
-        <f>_xlfn.COVARIANCE.P(Hoja1!$K$3:$K$252,Hoja1!R3:R252)/_xlfn.VAR.P(Hoja1!$K$3:$K$252)</f>
+      <c r="L8" s="14">
+        <f>_xlfn.COVARIANCE.P(DF!$K$3:$K$252,DF!R3:R252)/_xlfn.VAR.P(DF!$K$3:$K$252)</f>
         <v>0.14978940385205611</v>
       </c>
-      <c r="L8" s="14">
-        <f>_xlfn.COVARIANCE.P(Hoja1!$K$3:$K$252,Hoja1!S3:S252)/_xlfn.VAR.P(Hoja1!$K$3:$K$252)</f>
+      <c r="M8" s="14">
+        <f>_xlfn.COVARIANCE.P(DF!$K$3:$K$252,DF!S3:S252)/_xlfn.VAR.P(DF!$K$3:$K$252)</f>
         <v>0.13208872265104599</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="11" t="s">
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <f>SUMPRODUCT(DF!K10:S10,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>5.6705776066861757E-3</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="15">
-        <f>CORREL(Hoja1!$K$3:$K$252,Hoja1!K3:K252)</f>
+      <c r="E9" s="15">
+        <f>CORREL(DF!$K$3:$K$252,DF!K3:K252)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="E9" s="15">
-        <f>CORREL(Hoja1!$K$3:$K$252,Hoja1!L3:L252)</f>
+      <c r="F9" s="15">
+        <f>CORREL(DF!$K$3:$K$252,DF!L3:L252)</f>
         <v>0.95863519400703934</v>
       </c>
-      <c r="F9" s="15">
-        <f>CORREL(Hoja1!$K$3:$K$252,Hoja1!M3:M252)</f>
+      <c r="G9" s="15">
+        <f>CORREL(DF!$K$3:$K$252,DF!M3:M252)</f>
         <v>0.84483017527756299</v>
       </c>
-      <c r="G9" s="15">
-        <f>CORREL(Hoja1!$K$3:$K$252,Hoja1!N3:N252)</f>
+      <c r="H9" s="15">
+        <f>CORREL(DF!$K$3:$K$252,DF!N3:N252)</f>
         <v>0.82692557198679495</v>
       </c>
-      <c r="H9" s="15">
-        <f>CORREL(Hoja1!$K$3:$K$252,Hoja1!O3:O252)</f>
+      <c r="I9" s="15">
+        <f>CORREL(DF!$K$3:$K$252,DF!O3:O252)</f>
         <v>0.76585495982182494</v>
       </c>
-      <c r="I9" s="38">
-        <f>CORREL(Hoja1!$K$3:$K$252,Hoja1!P3:P252)</f>
+      <c r="J9" s="22">
+        <f>CORREL(DF!$K$3:$K$252,DF!P3:P252)</f>
         <v>-7.6587359103907982E-3</v>
       </c>
-      <c r="J9" s="15">
-        <f>CORREL(Hoja1!$K$3:$K$252,Hoja1!Q3:Q252)</f>
+      <c r="K9" s="15">
+        <f>CORREL(DF!$K$3:$K$252,DF!Q3:Q252)</f>
         <v>0.58323750372174321</v>
       </c>
-      <c r="K9" s="15">
-        <f>CORREL(Hoja1!$K$3:$K$252,Hoja1!R3:R252)</f>
+      <c r="L9" s="15">
+        <f>CORREL(DF!$K$3:$K$252,DF!R3:R252)</f>
         <v>9.6206357119124869E-2</v>
       </c>
-      <c r="L9" s="15">
-        <f>CORREL(Hoja1!$K$3:$K$252,Hoja1!S3:S252)</f>
+      <c r="M9" s="15">
+        <f>CORREL(DF!$K$3:$K$252,DF!S3:S252)</f>
         <v>0.20648385787268017</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="11" t="s">
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <f>SUMPRODUCT(DF!K11:S11,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.9188791565028863E-3</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="37">
-        <f>D8^2*_xlfn.VAR.P(Hoja1!$K$3:$K$252)/_xlfn.VAR.P(Hoja1!K3:K252)</f>
+      <c r="E10" s="21">
+        <f>E8^2*_xlfn.VAR.P(DF!$K$3:$K$252)/_xlfn.VAR.P(DF!K3:K252)</f>
         <v>0.99999999999999545</v>
       </c>
-      <c r="E10" s="37">
-        <f>E8^2*_xlfn.VAR.P(Hoja1!$K$3:$K$252)/_xlfn.VAR.P(Hoja1!L3:L252)</f>
+      <c r="F10" s="21">
+        <f>F8^2*_xlfn.VAR.P(DF!$K$3:$K$252)/_xlfn.VAR.P(DF!L3:L252)</f>
         <v>0.91898143518891129</v>
       </c>
-      <c r="F10" s="37">
-        <f>F8^2*_xlfn.VAR.P(Hoja1!$K$3:$K$252)/_xlfn.VAR.P(Hoja1!M3:M252)</f>
+      <c r="G10" s="21">
+        <f>G8^2*_xlfn.VAR.P(DF!$K$3:$K$252)/_xlfn.VAR.P(DF!M3:M252)</f>
         <v>0.71373802505951656</v>
       </c>
-      <c r="G10" s="37">
-        <f>G8^2*_xlfn.VAR.P(Hoja1!$K$3:$K$252)/_xlfn.VAR.P(Hoja1!N3:N252)</f>
+      <c r="H10" s="21">
+        <f>H8^2*_xlfn.VAR.P(DF!$K$3:$K$252)/_xlfn.VAR.P(DF!N3:N252)</f>
         <v>0.68380590160568711</v>
       </c>
-      <c r="H10" s="37">
-        <f>H8^2*_xlfn.VAR.P(Hoja1!$K$3:$K$252)/_xlfn.VAR.P(Hoja1!O3:O252)</f>
+      <c r="I10" s="21">
+        <f>I8^2*_xlfn.VAR.P(DF!$K$3:$K$252)/_xlfn.VAR.P(DF!O3:O252)</f>
         <v>0.5865338194836881</v>
       </c>
-      <c r="I10" s="39">
-        <f>I8^2*_xlfn.VAR.P(Hoja1!$K$3:$K$252)/_xlfn.VAR.P(Hoja1!P3:P252)</f>
+      <c r="J10" s="23">
+        <f>J8^2*_xlfn.VAR.P(DF!$K$3:$K$252)/_xlfn.VAR.P(DF!P3:P252)</f>
         <v>5.8656235745109491E-5</v>
       </c>
-      <c r="J10" s="37">
-        <f>J8^2*_xlfn.VAR.P(Hoja1!$K$3:$K$252)/_xlfn.VAR.P(Hoja1!Q3:Q252)</f>
+      <c r="K10" s="21">
+        <f>K8^2*_xlfn.VAR.P(DF!$K$3:$K$252)/_xlfn.VAR.P(DF!Q3:Q252)</f>
         <v>0.3401659857475699</v>
       </c>
-      <c r="K10" s="37">
-        <f>K8^2*_xlfn.VAR.P(Hoja1!$K$3:$K$252)/_xlfn.VAR.P(Hoja1!R3:R252)</f>
+      <c r="L10" s="21">
+        <f>L8^2*_xlfn.VAR.P(DF!$K$3:$K$252)/_xlfn.VAR.P(DF!R3:R252)</f>
         <v>9.2556631501325703E-3</v>
       </c>
-      <c r="L10" s="37">
-        <f>L8^2*_xlfn.VAR.P(Hoja1!$K$3:$K$252)/_xlfn.VAR.P(Hoja1!S3:S252)</f>
+      <c r="M10" s="21">
+        <f>M8^2*_xlfn.VAR.P(DF!$K$3:$K$252)/_xlfn.VAR.P(DF!S3:S252)</f>
         <v>4.2635583561985109E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="11" t="s">
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <f>SUMPRODUCT(DF!K12:S12,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>6.0390398779905747E-3</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="16">
-        <f>1-D10</f>
-        <v>4.5519144009631418E-15</v>
       </c>
       <c r="E11" s="16">
         <f>1-E10</f>
-        <v>8.1018564811088711E-2</v>
+        <v>4.5519144009631418E-15</v>
       </c>
       <c r="F11" s="16">
         <f>1-F10</f>
-        <v>0.28626197494048344</v>
+        <v>8.1018564811088711E-2</v>
       </c>
       <c r="G11" s="16">
         <f>1-G10</f>
-        <v>0.31619409839431289</v>
+        <v>0.28626197494048344</v>
       </c>
       <c r="H11" s="16">
         <f>1-H10</f>
+        <v>0.31619409839431289</v>
+      </c>
+      <c r="I11" s="16">
+        <f>1-I10</f>
         <v>0.4134661805163119</v>
       </c>
-      <c r="I11" s="16">
-        <f t="shared" ref="I11:J11" si="4">1-I10</f>
+      <c r="J11" s="16">
+        <f t="shared" ref="J11:K11" si="4">1-J10</f>
         <v>0.99994134376425492</v>
       </c>
-      <c r="J11" s="16">
+      <c r="K11" s="16">
         <f t="shared" si="4"/>
         <v>0.65983401425243016</v>
       </c>
-      <c r="K11" s="16">
-        <f t="shared" ref="K11:L11" si="5">1-K10</f>
+      <c r="L11" s="16">
+        <f t="shared" ref="L11:M11" si="5">1-L10</f>
         <v>0.9907443368498674</v>
       </c>
-      <c r="L11" s="16">
+      <c r="M11" s="16">
         <f t="shared" si="5"/>
         <v>0.95736441643801484</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="11" t="s">
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <f>SUMPRODUCT(DF!K13:S13,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.6344511457067286E-2</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="17">
-        <v>3.8989999999999997E-2</v>
-      </c>
       <c r="E12" s="17">
-        <v>3.8989999999999997E-2</v>
+        <v>0.1225</v>
       </c>
       <c r="F12" s="17">
-        <v>3.8989999999999997E-2</v>
+        <v>0.1225</v>
       </c>
       <c r="G12" s="17">
-        <v>3.8989999999999997E-2</v>
+        <v>0.1225</v>
       </c>
       <c r="H12" s="17">
-        <v>3.8989999999999997E-2</v>
-      </c>
-      <c r="I12" s="43">
-        <v>3.8989999999999997E-2</v>
+        <v>0.1225</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0.1225</v>
       </c>
       <c r="J12" s="17">
-        <v>3.8989999999999997E-2</v>
+        <v>0.1225</v>
       </c>
       <c r="K12" s="17">
-        <v>3.8989999999999997E-2</v>
+        <v>0.1225</v>
       </c>
       <c r="L12" s="17">
-        <v>3.8989999999999997E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="11" t="s">
+        <v>0.1225</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0.1225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <f>SUMPRODUCT(DF!K14:S14,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.0604038810490295E-2</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="17">
-        <f>(D4-D12)/D6</f>
-        <v>0.71311605337356077</v>
-      </c>
-      <c r="E13" s="17">
-        <f t="shared" ref="E13:I13" si="6">(E4-E12)/E6</f>
-        <v>0.5955704289668996</v>
-      </c>
-      <c r="F13" s="17">
+      <c r="E13" s="24">
+        <f>(E4-E12)/E6</f>
+        <v>0.32836495102203705</v>
+      </c>
+      <c r="F13" s="24">
+        <f t="shared" ref="F13:I13" si="6">(F4-F12)/F6</f>
+        <v>8.8843012295018453E-2</v>
+      </c>
+      <c r="G13" s="24">
         <f t="shared" si="6"/>
-        <v>0.60503554293564854</v>
-      </c>
-      <c r="G13" s="17">
+        <v>0.29626430626196931</v>
+      </c>
+      <c r="H13" s="24">
         <f t="shared" si="6"/>
-        <v>0.8435754173367469</v>
-      </c>
-      <c r="H13" s="17">
+        <v>0.56719763243398025</v>
+      </c>
+      <c r="I13" s="24">
         <f t="shared" si="6"/>
-        <v>0.85557578818610225</v>
-      </c>
-      <c r="I13" s="17">
-        <f t="shared" si="6"/>
-        <v>5.2143415500830761</v>
-      </c>
-      <c r="J13" s="17">
-        <f t="shared" ref="J13" si="7">(J4-J12)/J6</f>
-        <v>7.7662949579126561E-2</v>
-      </c>
-      <c r="K13" s="17">
-        <f>(K4-K12)/K6</f>
-        <v>-0.32082115410694012</v>
-      </c>
-      <c r="L13" s="17">
-        <f t="shared" ref="L13" si="8">(L4-L12)/L6</f>
-        <v>0.17865927147823821</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="18" t="s">
+        <v>0.60996122731821212</v>
+      </c>
+      <c r="J13" s="24">
+        <f>(J4-J12)/J6</f>
+        <v>5.0542434886438379</v>
+      </c>
+      <c r="K13" s="24">
+        <f t="shared" ref="K13" si="7">(K4-K12)/K6</f>
+        <v>-0.20034455261421152</v>
+      </c>
+      <c r="L13" s="24">
+        <f>(L4-L12)/L6</f>
+        <v>-0.56793811300322539</v>
+      </c>
+      <c r="M13" s="24">
+        <f t="shared" ref="M13" si="8">(M4-M12)/M6</f>
+        <v>-0.42279171040601921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30">
+        <f>SUMPRODUCT(DF!K15:S15,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.6786609494745374E-3</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="19">
-        <f>(D4-D12)/D8</f>
-        <v>0.15478141908692145</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="E14" s="31">
         <f>(E4-E12)/E8</f>
-        <v>0.13484609306737885</v>
-      </c>
-      <c r="F14" s="19">
+        <v>7.127141908692125E-2</v>
+      </c>
+      <c r="F14" s="31">
         <f>(F4-F12)/F8</f>
-        <v>0.15544261064531864</v>
-      </c>
-      <c r="G14" s="19">
-        <f t="shared" ref="G14:J14" si="9">(G4-G12)/G8</f>
-        <v>0.22141962148395816</v>
-      </c>
-      <c r="H14" s="19">
-        <f>(H4-H12)/H8</f>
-        <v>0.24247700975648759</v>
-      </c>
-      <c r="I14" s="19">
+        <v>2.0115392775799098E-2</v>
+      </c>
+      <c r="G14" s="31">
+        <f>(G4-G12)/G8</f>
+        <v>7.6114697300159809E-2</v>
+      </c>
+      <c r="H14" s="31">
+        <f t="shared" ref="H14:K14" si="9">(H4-H12)/H8</f>
+        <v>0.14887665346700754</v>
+      </c>
+      <c r="I14" s="31">
         <f>(I4-I12)/I8</f>
-        <v>-147.7750079710485</v>
-      </c>
-      <c r="J14" s="19">
+        <v>0.1728678820856793</v>
+      </c>
+      <c r="J14" s="31">
+        <f>(J4-J12)/J8</f>
+        <v>-143.23781145676264</v>
+      </c>
+      <c r="K14" s="31">
         <f t="shared" si="9"/>
-        <v>2.890194359147762E-2</v>
-      </c>
-      <c r="K14" s="19">
-        <f>(K4-K12)/K8</f>
-        <v>-0.72379876442526059</v>
-      </c>
-      <c r="L14" s="19">
-        <f t="shared" ref="L14" si="10">(L4-L12)/L8</f>
-        <v>0.18780107062747997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
+        <v>-7.4557391779413312E-2</v>
+      </c>
+      <c r="L14" s="31">
+        <f>(L4-L12)/L8</f>
+        <v>-1.2813148360058717</v>
+      </c>
+      <c r="M14" s="31">
+        <f t="shared" ref="M14" si="10">(M4-M12)/M8</f>
+        <v>-0.44442549893832617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <f>SUMPRODUCT(DF!K16:S16,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-5.4456647917206519E-3</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0.12949956076645336</v>
+      </c>
+      <c r="G15" s="26">
+        <v>5.318593060070563E-2</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="I15" s="26">
+        <v>8.2439200505363644E-2</v>
+      </c>
+      <c r="J15" s="26">
+        <v>0.33842538906082265</v>
+      </c>
+      <c r="K15" s="26">
+        <v>0</v>
+      </c>
+      <c r="L15" s="26">
+        <v>0</v>
+      </c>
+      <c r="M15" s="29">
+        <v>0.31644991906690101</v>
+      </c>
+      <c r="N15" s="29"/>
+    </row>
+    <row r="16" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
+        <f>SUMPRODUCT(DF!K17:S17,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.0319413821774402E-2</v>
+      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="45">
-        <f>C19</f>
-        <v>4.2309967829213903E-2</v>
-      </c>
-      <c r="F16" s="45">
-        <f>C20</f>
-        <v>3.6602161261712639E-2</v>
-      </c>
-      <c r="G16" s="45">
-        <f>C21</f>
-        <v>3.6225611297570869E-2</v>
-      </c>
-      <c r="H16" s="45">
-        <f>C22</f>
-        <v>1.3392085615291665E-2</v>
-      </c>
-      <c r="I16" s="45">
-        <f>C23</f>
-        <v>0.85133436836981968</v>
-      </c>
-      <c r="J16" s="45">
-        <f>C24</f>
-        <v>2.0135801036845504E-2</v>
-      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="46">
-        <f>SUM(C19:C24)</f>
-        <v>0.99999999541045437</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="A17" s="30">
+        <f>SUMPRODUCT(DF!K18:S18,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>9.1154486088572233E-4</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <f>SUMPRODUCT(DF!K19:S19,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-5.0782846276560285E-3</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="34">
+        <f>SUM(E15:M15)</f>
+        <v>1.0000000000002462</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <f>SUMPRODUCT(DF!K20:S20,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.1726237059868194E-2</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="4">
+        <f>AVERAGE(A2:A251)</f>
+        <v>2.1482534389379486E-3</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <f>SUMPRODUCT(DF!K21:S21,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-8.611348333234967E-3</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="12">
+        <f>E19*251</f>
+        <v>0.53921161317342514</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <f>SUMPRODUCT(DF!K22:S22,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>7.9172893357875931E-3</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="4">
+        <f>_xlfn.STDEV.S(A2:A251)</f>
+        <v>1.2649110671014185E-2</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <f>SUMPRODUCT(DF!K23:S23,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.9916435697425489E-2</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="8" t="s">
+      <c r="E22" s="12">
+        <f>E21*SQRT(250)</f>
+        <v>0.20000000047972807</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <f>SUMPRODUCT(DF!K24:S24,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.097143849160619E-2</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="11">
-        <v>3.2386102818871899E-4</v>
-      </c>
-      <c r="F18" s="11">
-        <v>2.3039325985357105E-4</v>
-      </c>
-      <c r="G18" s="11">
-        <v>1.7699553495874524E-4</v>
-      </c>
-      <c r="H18" s="20">
-        <v>3.2828247275174807E-4</v>
-      </c>
-      <c r="I18" s="11">
-        <v>5.0359077952696093E-4</v>
-      </c>
-      <c r="J18" s="6">
-        <v>3.4454689956896298E-4</v>
-      </c>
-      <c r="K18" s="47">
-        <f>E4</f>
-        <v>0.13714156016164636</v>
-      </c>
-      <c r="L18" s="48">
-        <f>E8</f>
-        <v>0.72787841255884778</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="49">
-        <v>4.2309967829213903E-2</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="11">
-        <v>2.3039325985357105E-4</v>
-      </c>
-      <c r="F19" s="11">
-        <v>3.6939866058534663E-4</v>
-      </c>
-      <c r="G19" s="11">
-        <v>2.1424890987187991E-4</v>
-      </c>
-      <c r="H19" s="21">
-        <v>2.319242335731307E-4</v>
-      </c>
-      <c r="I19" s="11">
-        <v>2.3960956466516253E-4</v>
-      </c>
-      <c r="J19" s="6">
-        <v>2.534710055511346E-4</v>
-      </c>
-      <c r="K19" s="47">
-        <f>F4</f>
-        <v>0.20262738648348999</v>
-      </c>
-      <c r="L19" s="48">
-        <f>F8</f>
-        <v>1.0527189797195944</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="49">
-        <v>3.6602161261712639E-2</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1.7699553495874524E-4</v>
-      </c>
-      <c r="F20" s="11">
-        <v>2.1424890987187991E-4</v>
-      </c>
-      <c r="G20" s="11">
-        <v>3.4202845978806957E-4</v>
-      </c>
-      <c r="H20" s="21">
-        <v>1.7158508959452546E-4</v>
-      </c>
-      <c r="I20" s="11">
-        <v>1.7398076653148335E-4</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1.8127983112415619E-4</v>
-      </c>
-      <c r="K20" s="47">
-        <f>G4</f>
-        <v>0.29388379736716508</v>
-      </c>
-      <c r="L20" s="50">
-        <f>G8</f>
-        <v>1.1511798080895561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="49">
-        <v>3.6225611297570869E-2</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="11">
-        <v>3.2828247275174807E-4</v>
-      </c>
-      <c r="F21" s="11">
-        <v>2.319242335731307E-4</v>
-      </c>
-      <c r="G21" s="11">
-        <v>1.7158508959452546E-4</v>
-      </c>
-      <c r="H21" s="21">
-        <v>4.7340096400834203E-4</v>
-      </c>
-      <c r="I21" s="11">
-        <v>4.2787215289800848E-4</v>
-      </c>
-      <c r="J21" s="6">
-        <v>3.7817165286242244E-4</v>
-      </c>
-      <c r="K21" s="47">
-        <f>H4</f>
-        <v>0.32988942314068304</v>
-      </c>
-      <c r="L21" s="50">
-        <f>H8</f>
-        <v>1.1996989876806246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="49">
-        <v>1.3392085615291665E-2</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="11">
-        <v>5.0359077952696093E-4</v>
-      </c>
-      <c r="F22" s="11">
-        <v>2.3960956466516253E-4</v>
-      </c>
-      <c r="G22" s="11">
-        <v>1.7398076653148335E-4</v>
-      </c>
-      <c r="H22" s="21">
-        <v>4.2787215289800848E-4</v>
-      </c>
-      <c r="I22" s="11">
-        <v>1.9879788291701848E-3</v>
-      </c>
-      <c r="J22" s="6">
-        <v>4.691410725479059E-4</v>
-      </c>
-      <c r="K22" s="47">
-        <f>I4</f>
-        <v>2.7588834136544986</v>
-      </c>
-      <c r="L22" s="48">
-        <f>I8</f>
-        <v>-1.840563875447308E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="49">
-        <v>0.85133436836981968</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="18">
-        <v>3.4454689956896293E-4</v>
-      </c>
-      <c r="F23" s="18">
-        <v>2.534710055511346E-4</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1.8127983112415619E-4</v>
-      </c>
-      <c r="H23" s="22">
-        <v>3.7817165286242244E-4</v>
-      </c>
-      <c r="I23" s="18">
-        <v>4.691410725479059E-4</v>
-      </c>
-      <c r="J23" s="51">
-        <v>4.6203795124722167E-4</v>
-      </c>
-      <c r="K23" s="42">
-        <f>J4</f>
-        <v>6.2318985254658621E-2</v>
-      </c>
-      <c r="L23" s="52">
-        <f>J8</f>
-        <v>0.8071770391780051</v>
-      </c>
+      <c r="E23" s="3">
+        <f>(E20-E12)/E22</f>
+        <v>2.0835580608694193</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="49">
-        <v>2.0135801036845504E-2</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6">
-        <f>SUMPRODUCT(E18:E23,$P$19:$P$24)*E16</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" ref="F24:J24" si="11">SUMPRODUCT(F18:F23,$P$19:$P$24)*F16</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <f>SUMPRODUCT(G18:G23,$P$19:$P$24)*G16</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="A24" s="30">
+        <f>SUMPRODUCT(DF!K25:S25,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.1084736058049178E-2</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="11">
+        <f>SUMPRODUCT(E15:M15,E8:M8)</f>
+        <v>0.37228151924730696</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <f>SUMPRODUCT(DF!K26:S26,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>3.6530869846875341E-2</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="37">
+        <f>(E20-E12)/E24</f>
+        <v>1.1193454190687431</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="24" t="e">
-        <f>SUMPRODUCT(#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="25" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <f>SUMPRODUCT(DF!K27:S27,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>4.4804365021196883E-2</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="36">
+        <v>3</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="27" t="e">
-        <f>SQRT(SUM(#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="20">
-        <v>1</v>
-      </c>
-      <c r="G27" s="28" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H27" s="29" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="30">
+        <f>SUMPRODUCT(DF!K28:S28,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>7.9973805680719073E-3</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="35">
+        <f>+E20-((E26/2)*(E22^2))</f>
+        <v>0.47921161288558828</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="4" t="e">
-        <f>(D26-F12)/D27</f>
-        <v>#REF!</v>
-      </c>
+      <c r="A28" s="30">
+        <f>SUMPRODUCT(DF!K29:S29,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>4.0725235776915315E-3</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="21">
-        <v>2</v>
-      </c>
-      <c r="G28" s="30">
-        <v>1.73466433670455E-2</v>
-      </c>
-      <c r="H28" s="31" t="e">
-        <f t="shared" ref="H28:H34" si="12">H27+($R$43-$S$43)/7</f>
-        <v>#REF!</v>
-      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="11" t="e">
-        <f>SUMPRODUCT(#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="A29" s="30">
+        <f>SUMPRODUCT(DF!K30:S30,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.0013873953384659E-2</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="21">
-        <v>3</v>
-      </c>
-      <c r="G29" s="30">
-        <v>2.0503972955245999E-2</v>
-      </c>
-      <c r="H29" s="31" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="18" t="e">
-        <f>(D26-F12)/D29</f>
-        <v>#REF!</v>
-      </c>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <f>SUMPRODUCT(DF!K31:S31,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-7.5987226998580808E-3</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="21">
-        <v>4</v>
-      </c>
-      <c r="G30" s="30">
-        <v>2.4452630439297147E-2</v>
-      </c>
-      <c r="H30" s="31" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
+      <c r="A31" s="30">
+        <f>SUMPRODUCT(DF!K32:S32,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-8.3839455557136369E-3</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="21">
-        <v>5</v>
-      </c>
-      <c r="G31" s="30">
-        <v>2.9066290699926788E-2</v>
-      </c>
-      <c r="H31" s="31" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
+      <c r="A32" s="30">
+        <f>SUMPRODUCT(DF!K33:S33,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-3.8978957291893246E-3</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="21">
-        <v>6</v>
-      </c>
-      <c r="G32" s="30">
-        <v>3.4016121309713987E-2</v>
-      </c>
-      <c r="H32" s="31" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="30">
+        <f>SUMPRODUCT(DF!K34:S34,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>9.8973520120251585E-3</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="21">
-        <v>7</v>
-      </c>
-      <c r="G33" s="30">
-        <v>3.9171752607492311E-2</v>
-      </c>
-      <c r="H33" s="31" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
+        <f>SUMPRODUCT(DF!K35:S35,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.5261012293541387E-2</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="22">
-        <v>8</v>
-      </c>
-      <c r="G34" s="35" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H34" s="36" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="30">
+        <f>SUMPRODUCT(DF!K36:S36,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-3.5613056981349377E-4</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -19036,11 +18860,15 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="6"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="30">
+        <f>SUMPRODUCT(DF!K37:S37,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.0392386491832032E-2</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -19049,11 +18877,15 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <f>SUMPRODUCT(DF!K38:S38,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.3056535411099997E-2</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -19062,11 +18894,15 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="30">
+        <f>SUMPRODUCT(DF!K39:S39,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.5816548928856826E-2</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -19075,11 +18911,15 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <f>SUMPRODUCT(DF!K40:S40,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.3370157330074456E-2</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -19088,11 +18928,15 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="30">
+        <f>SUMPRODUCT(DF!K41:S41,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>7.4841220892891969E-4</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -19101,11 +18945,15 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
+        <f>SUMPRODUCT(DF!K42:S42,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-6.9594448492801405E-3</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -19114,11 +18962,15 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="6"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <f>SUMPRODUCT(DF!K43:S43,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.3253705964221223E-2</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -19127,11 +18979,15 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="6"/>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <f>SUMPRODUCT(DF!K44:S44,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-3.7636997907051981E-3</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -19140,11 +18996,15 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
+        <f>SUMPRODUCT(DF!K45:S45,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.092272765650641E-2</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -19153,11 +19013,15 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="6"/>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="30">
+        <f>SUMPRODUCT(DF!K46:S46,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.2773000575617447E-3</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -19166,11 +19030,15 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="6"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="30">
+        <f>SUMPRODUCT(DF!K47:S47,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>9.2464210250324929E-3</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -19179,11 +19047,15 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="30">
+        <f>SUMPRODUCT(DF!K48:S48,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.2404660225987109E-2</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -19192,11 +19064,15 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="6"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="30">
+        <f>SUMPRODUCT(DF!K49:S49,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.0610249905627749E-3</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -19205,11 +19081,15 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-    </row>
-    <row r="49" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="6"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="30">
+        <f>SUMPRODUCT(DF!K50:S50,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.6899934046000827E-2</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -19218,11 +19098,15 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="6"/>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="30">
+        <f>SUMPRODUCT(DF!K51:S51,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.5158687780019E-2</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -19231,11 +19115,15 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="6"/>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="30">
+        <f>SUMPRODUCT(DF!K52:S52,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-7.4637964926229589E-3</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -19244,11 +19132,15 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="6"/>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="30">
+        <f>SUMPRODUCT(DF!K53:S53,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-9.3184765295766924E-3</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -19257,11 +19149,15 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="6"/>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="30">
+        <f>SUMPRODUCT(DF!K54:S54,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.4735008029970534E-2</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -19270,11 +19166,15 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="6"/>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="30">
+        <f>SUMPRODUCT(DF!K55:S55,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.0554320691634608E-2</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -19283,11 +19183,15 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="6"/>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="30">
+        <f>SUMPRODUCT(DF!K56:S56,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.368708305118644E-2</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -19296,11 +19200,15 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="6"/>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="30">
+        <f>SUMPRODUCT(DF!K57:S57,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.1892030672907549E-2</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -19309,11 +19217,15 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="6"/>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="30">
+        <f>SUMPRODUCT(DF!K58:S58,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-3.0371891254768733E-3</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -19322,11 +19234,15 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-    </row>
-    <row r="58" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="6"/>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="30">
+        <f>SUMPRODUCT(DF!K59:S59,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>6.1436465831857575E-3</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -19335,11 +19251,15 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="6"/>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="30">
+        <f>SUMPRODUCT(DF!K60:S60,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.0342109061195006E-2</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -19348,11 +19268,15 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="6"/>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="30">
+        <f>SUMPRODUCT(DF!K61:S61,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-6.0252718705928899E-3</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="7"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -19361,11 +19285,15 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
-    </row>
-    <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="6"/>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="30">
+        <f>SUMPRODUCT(DF!K62:S62,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.0785411801370328E-2</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -19374,11 +19302,15 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
-    </row>
-    <row r="62" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="6"/>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="30">
+        <f>SUMPRODUCT(DF!K63:S63,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.0216652299138911E-2</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -19387,11 +19319,15 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
-    </row>
-    <row r="63" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="6"/>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="30">
+        <f>SUMPRODUCT(DF!K64:S64,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>4.3645051325576813E-3</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -19400,11 +19336,15 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-    </row>
-    <row r="64" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="6"/>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="30">
+        <f>SUMPRODUCT(DF!K65:S65,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>3.0142267757748344E-2</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -19413,11 +19353,15 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="6"/>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="30">
+        <f>SUMPRODUCT(DF!K66:S66,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>8.4128884112004733E-3</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -19426,11 +19370,15 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
-    </row>
-    <row r="66" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="6"/>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="30">
+        <f>SUMPRODUCT(DF!K67:S67,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>5.1345308537090262E-3</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -19439,11 +19387,15 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
-    </row>
-    <row r="67" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="6"/>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="30">
+        <f>SUMPRODUCT(DF!K68:S68,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.7989342102452836E-2</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -19452,11 +19404,15 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
-    </row>
-    <row r="68" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="6"/>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="30">
+        <f>SUMPRODUCT(DF!K69:S69,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.2160094168032883E-2</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -19465,11 +19421,15 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
-    </row>
-    <row r="69" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="6"/>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="30">
+        <f>SUMPRODUCT(DF!K70:S70,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.179176239968391E-2</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -19478,11 +19438,15 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
-    </row>
-    <row r="70" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="6"/>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="30">
+        <f>SUMPRODUCT(DF!K71:S71,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-8.3183590003974676E-3</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -19491,11 +19455,15 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
-    </row>
-    <row r="71" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="6"/>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="30">
+        <f>SUMPRODUCT(DF!K72:S72,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.6890090928620798E-2</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="7"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -19504,11 +19472,15 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
-    </row>
-    <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="6"/>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="30">
+        <f>SUMPRODUCT(DF!K73:S73,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.537814411287171E-2</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="7"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -19517,11 +19489,15 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
-    </row>
-    <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="6"/>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="30">
+        <f>SUMPRODUCT(DF!K74:S74,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>3.4533982338043771E-2</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="7"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -19530,11 +19506,15 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
-    </row>
-    <row r="74" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="6"/>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="30">
+        <f>SUMPRODUCT(DF!K75:S75,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>7.4813845949737905E-3</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -19543,11 +19523,15 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
-    </row>
-    <row r="75" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="6"/>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="30">
+        <f>SUMPRODUCT(DF!K76:S76,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>6.2733208927493009E-4</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="7"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -19556,11 +19540,15 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
-    </row>
-    <row r="76" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="6"/>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="30">
+        <f>SUMPRODUCT(DF!K77:S77,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>6.9562503607665683E-3</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -19569,11 +19557,15 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-    </row>
-    <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="6"/>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="30">
+        <f>SUMPRODUCT(DF!K78:S78,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.3001303025570945E-2</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -19582,11 +19574,15 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
-    </row>
-    <row r="78" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="6"/>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="30">
+        <f>SUMPRODUCT(DF!K79:S79,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.8237103815248942E-2</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="7"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -19595,11 +19591,15 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
-    </row>
-    <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="6"/>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="30">
+        <f>SUMPRODUCT(DF!K80:S80,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-9.9782614693359967E-4</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -19608,166 +19608,1076 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
-    </row>
-    <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-    </row>
-    <row r="81" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-    </row>
-    <row r="82" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-    </row>
-    <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-    </row>
-    <row r="84" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-    </row>
-    <row r="85" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-    </row>
-    <row r="86" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-    </row>
-    <row r="87" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-    </row>
-    <row r="88" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-    </row>
-    <row r="89" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="7"/>
-    </row>
-    <row r="90" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="7"/>
-    </row>
-    <row r="91" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="7"/>
-    </row>
-    <row r="92" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-    </row>
-    <row r="93" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-    </row>
-    <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-    </row>
-    <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-    </row>
-    <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-    </row>
-    <row r="97" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
-    </row>
-    <row r="98" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-    </row>
-    <row r="99" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-    </row>
-    <row r="100" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="30">
+        <f>SUMPRODUCT(DF!K81:S81,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.989791038429163E-2</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="7"/>
+    </row>
+    <row r="81" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="30">
+        <f>SUMPRODUCT(DF!K82:S82,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.0459504666670639E-2</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="7"/>
+    </row>
+    <row r="82" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="30">
+        <f>SUMPRODUCT(DF!K83:S83,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-3.0046967544514157E-3</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
+    </row>
+    <row r="83" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="30">
+        <f>SUMPRODUCT(DF!K84:S84,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.2523575043458638E-2</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
+    </row>
+    <row r="84" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="30">
+        <f>SUMPRODUCT(DF!K85:S85,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.3524117024906088E-2</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="7"/>
+    </row>
+    <row r="85" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="30">
+        <f>SUMPRODUCT(DF!K86:S86,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.043640351809345E-2</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
+    </row>
+    <row r="86" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="30">
+        <f>SUMPRODUCT(DF!K87:S87,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-7.1220678806043361E-3</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+    </row>
+    <row r="87" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="30">
+        <f>SUMPRODUCT(DF!K88:S88,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.5289736675704232E-2</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+    </row>
+    <row r="88" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="30">
+        <f>SUMPRODUCT(DF!K89:S89,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>8.3122140954382476E-3</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
+    </row>
+    <row r="89" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="30">
+        <f>SUMPRODUCT(DF!K90:S90,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.0539813136648041E-2</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="7"/>
+    </row>
+    <row r="90" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="30">
+        <f>SUMPRODUCT(DF!K91:S91,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.8864206401811436E-3</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="7"/>
+    </row>
+    <row r="91" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="30">
+        <f>SUMPRODUCT(DF!K92:S92,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.1938142332644845E-2</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="7"/>
+    </row>
+    <row r="92" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="30">
+        <f>SUMPRODUCT(DF!K93:S93,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.4735001160453967E-2</v>
+      </c>
+      <c r="B92" s="6"/>
+    </row>
+    <row r="93" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="30">
+        <f>SUMPRODUCT(DF!K94:S94,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.3840529289354182E-2</v>
+      </c>
+      <c r="B93" s="6"/>
+    </row>
+    <row r="94" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="30">
+        <f>SUMPRODUCT(DF!K95:S95,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-7.7531316473819344E-3</v>
+      </c>
+      <c r="B94" s="6"/>
+    </row>
+    <row r="95" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="30">
+        <f>SUMPRODUCT(DF!K96:S96,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>4.233591667301749E-2</v>
+      </c>
+      <c r="B95" s="6"/>
+    </row>
+    <row r="96" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="30">
+        <f>SUMPRODUCT(DF!K97:S97,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-4.8006872537174226E-3</v>
+      </c>
+      <c r="B96" s="6"/>
+    </row>
+    <row r="97" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="30">
+        <f>SUMPRODUCT(DF!K98:S98,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-4.471876641378679E-3</v>
+      </c>
+      <c r="B97" s="6"/>
+    </row>
+    <row r="98" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="30">
+        <f>SUMPRODUCT(DF!K99:S99,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.0947292584255234E-3</v>
+      </c>
+      <c r="B98" s="6"/>
+    </row>
+    <row r="99" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="30">
+        <f>SUMPRODUCT(DF!K100:S100,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-6.5004343589365153E-3</v>
+      </c>
+      <c r="B99" s="6"/>
+    </row>
+    <row r="100" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="30">
+        <f>SUMPRODUCT(DF!K101:S101,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>8.7103893131175794E-3</v>
+      </c>
+      <c r="B100" s="6"/>
+    </row>
+    <row r="101" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="30">
+        <f>SUMPRODUCT(DF!K102:S102,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.2133196881341629E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="30">
+        <f>SUMPRODUCT(DF!K103:S103,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>5.2924445293757918E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="30">
+        <f>SUMPRODUCT(DF!K104:S104,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.5348961767296288E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="30">
+        <f>SUMPRODUCT(DF!K105:S105,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.0611747029985559E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="30">
+        <f>SUMPRODUCT(DF!K106:S106,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-9.5025220110721773E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="30">
+        <f>SUMPRODUCT(DF!K107:S107,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-9.7251827704600766E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="30">
+        <f>SUMPRODUCT(DF!K108:S108,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>9.4560825723866062E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="30">
+        <f>SUMPRODUCT(DF!K109:S109,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.5677745644702842E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="30">
+        <f>SUMPRODUCT(DF!K110:S110,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>7.638938522053218E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="30">
+        <f>SUMPRODUCT(DF!K111:S111,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.2585062297840561E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="30">
+        <f>SUMPRODUCT(DF!K112:S112,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.232982699109509E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="30">
+        <f>SUMPRODUCT(DF!K113:S113,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.3200630817986451E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="30">
+        <f>SUMPRODUCT(DF!K114:S114,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.7635977377073106E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="30">
+        <f>SUMPRODUCT(DF!K115:S115,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>3.3888814847598762E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="30">
+        <f>SUMPRODUCT(DF!K116:S116,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>9.2191718659188661E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="30">
+        <f>SUMPRODUCT(DF!K117:S117,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.2832241799058657E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="30">
+        <f>SUMPRODUCT(DF!K118:S118,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-4.1165809113910649E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="30">
+        <f>SUMPRODUCT(DF!K119:S119,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-8.5737284456812429E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="30">
+        <f>SUMPRODUCT(DF!K120:S120,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>7.9045526177397678E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="30">
+        <f>SUMPRODUCT(DF!K121:S121,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>8.2110094272451178E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="30">
+        <f>SUMPRODUCT(DF!K122:S122,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>9.0723278843407116E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="30">
+        <f>SUMPRODUCT(DF!K123:S123,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>6.3957055694769723E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="30">
+        <f>SUMPRODUCT(DF!K124:S124,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.3188361094479307E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="30">
+        <f>SUMPRODUCT(DF!K125:S125,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.3831010270928361E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="30">
+        <f>SUMPRODUCT(DF!K126:S126,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.3840895313515719E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="30">
+        <f>SUMPRODUCT(DF!K127:S127,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.0067549085876067E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="30">
+        <f>SUMPRODUCT(DF!K128:S128,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.0583533893497202E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="30">
+        <f>SUMPRODUCT(DF!K129:S129,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-8.6930613236903074E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="30">
+        <f>SUMPRODUCT(DF!K130:S130,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.0372833161531509E-4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="30">
+        <f>SUMPRODUCT(DF!K131:S131,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.5145863052118107E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="30">
+        <f>SUMPRODUCT(DF!K132:S132,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.8388155128677428E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="30">
+        <f>SUMPRODUCT(DF!K133:S133,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>5.5837055066072219E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="30">
+        <f>SUMPRODUCT(DF!K134:S134,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>4.23159386593004E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="30">
+        <f>SUMPRODUCT(DF!K135:S135,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.1715727482911753E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="30">
+        <f>SUMPRODUCT(DF!K136:S136,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>8.9505870887247006E-4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="30">
+        <f>SUMPRODUCT(DF!K137:S137,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-4.7942806150124166E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="30">
+        <f>SUMPRODUCT(DF!K138:S138,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-9.1276601351648352E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="30">
+        <f>SUMPRODUCT(DF!K139:S139,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>4.5254217426388636E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="30">
+        <f>SUMPRODUCT(DF!K140:S140,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>5.0499462938288697E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="30">
+        <f>SUMPRODUCT(DF!K141:S141,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.5515088790013927E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="30">
+        <f>SUMPRODUCT(DF!K142:S142,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.6109001268342839E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="30">
+        <f>SUMPRODUCT(DF!K143:S143,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.02856225350222E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="30">
+        <f>SUMPRODUCT(DF!K144:S144,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-3.0371013197868345E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="30">
+        <f>SUMPRODUCT(DF!K145:S145,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.0369897157611521E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="30">
+        <f>SUMPRODUCT(DF!K146:S146,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.1296633123060668E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="30">
+        <f>SUMPRODUCT(DF!K147:S147,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>7.2446846808294678E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="30">
+        <f>SUMPRODUCT(DF!K148:S148,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-4.7174310151936946E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="30">
+        <f>SUMPRODUCT(DF!K149:S149,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>3.8793377243147931E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="30">
+        <f>SUMPRODUCT(DF!K150:S150,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.206934460527088E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="30">
+        <f>SUMPRODUCT(DF!K151:S151,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.1516759501867808E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="30">
+        <f>SUMPRODUCT(DF!K152:S152,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>6.4083164813491045E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="30">
+        <f>SUMPRODUCT(DF!K153:S153,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>3.9952246612995762E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="30">
+        <f>SUMPRODUCT(DF!K154:S154,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>7.9519205328530788E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="30">
+        <f>SUMPRODUCT(DF!K155:S155,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.8732438254902138E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="30">
+        <f>SUMPRODUCT(DF!K156:S156,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-3.7792259144302808E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="30">
+        <f>SUMPRODUCT(DF!K157:S157,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.5876438992601749E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="30">
+        <f>SUMPRODUCT(DF!K158:S158,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-4.4282656535526007E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="30">
+        <f>SUMPRODUCT(DF!K159:S159,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-6.0999902388953024E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="30">
+        <f>SUMPRODUCT(DF!K160:S160,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>6.8572348755621321E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="30">
+        <f>SUMPRODUCT(DF!K161:S161,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.1489911461105892E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="30">
+        <f>SUMPRODUCT(DF!K162:S162,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.5793872145104981E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="30">
+        <f>SUMPRODUCT(DF!K163:S163,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.7813877246799639E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="30">
+        <f>SUMPRODUCT(DF!K164:S164,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.5128804121151371E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="30">
+        <f>SUMPRODUCT(DF!K165:S165,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.5082851921017358E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="30">
+        <f>SUMPRODUCT(DF!K166:S166,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.7916360193963831E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="30">
+        <f>SUMPRODUCT(DF!K167:S167,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.9515982245702987E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="30">
+        <f>SUMPRODUCT(DF!K168:S168,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-9.464589799092973E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="30">
+        <f>SUMPRODUCT(DF!K169:S169,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-6.7944964374646276E-4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="30">
+        <f>SUMPRODUCT(DF!K170:S170,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>8.86174168951602E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="30">
+        <f>SUMPRODUCT(DF!K171:S171,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>5.68413326720705E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="30">
+        <f>SUMPRODUCT(DF!K172:S172,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.6592326583472778E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="30">
+        <f>SUMPRODUCT(DF!K173:S173,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.5130235701203061E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="30">
+        <f>SUMPRODUCT(DF!K174:S174,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.9441653374628067E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="30">
+        <f>SUMPRODUCT(DF!K175:S175,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>7.6892831491745597E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="30">
+        <f>SUMPRODUCT(DF!K176:S176,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>5.7161465550052909E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="30">
+        <f>SUMPRODUCT(DF!K177:S177,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.0839616801796991E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="30">
+        <f>SUMPRODUCT(DF!K178:S178,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-4.5136607187801093E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="30">
+        <f>SUMPRODUCT(DF!K179:S179,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-5.2597805368179446E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="30">
+        <f>SUMPRODUCT(DF!K180:S180,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.4247456337265853E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="30">
+        <f>SUMPRODUCT(DF!K181:S181,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>5.4710232474404772E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="30">
+        <f>SUMPRODUCT(DF!K182:S182,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-4.1520046952667079E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="30">
+        <f>SUMPRODUCT(DF!K183:S183,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.4372514379951285E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="30">
+        <f>SUMPRODUCT(DF!K184:S184,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.1995049852479426E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="30">
+        <f>SUMPRODUCT(DF!K185:S185,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>7.4693517154640465E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="30">
+        <f>SUMPRODUCT(DF!K186:S186,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.3175290619404307E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="30">
+        <f>SUMPRODUCT(DF!K187:S187,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.5892274899840062E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="30">
+        <f>SUMPRODUCT(DF!K188:S188,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.8772814929150007E-4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="30">
+        <f>SUMPRODUCT(DF!K189:S189,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.2203557689428736E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="30">
+        <f>SUMPRODUCT(DF!K190:S190,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.3785119115397365E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="30">
+        <f>SUMPRODUCT(DF!K191:S191,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.446155014043868E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="30">
+        <f>SUMPRODUCT(DF!K192:S192,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.3522039288506817E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="30">
+        <f>SUMPRODUCT(DF!K193:S193,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.8357912194237689E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="30">
+        <f>SUMPRODUCT(DF!K194:S194,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>7.2576681185126035E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="30">
+        <f>SUMPRODUCT(DF!K195:S195,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>8.7499260950572033E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="30">
+        <f>SUMPRODUCT(DF!K196:S196,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>3.2503162881593311E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="30">
+        <f>SUMPRODUCT(DF!K197:S197,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.2493896922731992E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="30">
+        <f>SUMPRODUCT(DF!K198:S198,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.5688340115685439E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="30">
+        <f>SUMPRODUCT(DF!K199:S199,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>5.295939446933668E-4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="30">
+        <f>SUMPRODUCT(DF!K200:S200,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>9.1385623600364427E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="30">
+        <f>SUMPRODUCT(DF!K201:S201,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.1825743240149334E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="30">
+        <f>SUMPRODUCT(DF!K202:S202,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>7.2825462021658899E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="30">
+        <f>SUMPRODUCT(DF!K203:S203,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-4.4194812328329607E-4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="30">
+        <f>SUMPRODUCT(DF!K204:S204,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>7.8147474870714217E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="30">
+        <f>SUMPRODUCT(DF!K205:S205,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-6.8841002594357116E-4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="30">
+        <f>SUMPRODUCT(DF!K206:S206,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.1347395041714467E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="30">
+        <f>SUMPRODUCT(DF!K207:S207,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-6.5245500996159002E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="30">
+        <f>SUMPRODUCT(DF!K208:S208,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>4.8569359129880743E-4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="30">
+        <f>SUMPRODUCT(DF!K209:S209,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>3.4332970107148414E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="30">
+        <f>SUMPRODUCT(DF!K210:S210,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-3.5843273366745376E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="30">
+        <f>SUMPRODUCT(DF!K211:S211,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.945805842151855E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="30">
+        <f>SUMPRODUCT(DF!K212:S212,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-6.4078268591680875E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="30">
+        <f>SUMPRODUCT(DF!K213:S213,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.273657412670671E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="30">
+        <f>SUMPRODUCT(DF!K214:S214,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.2681096437901827E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="30">
+        <f>SUMPRODUCT(DF!K215:S215,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>3.6136454427134145E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="30">
+        <f>SUMPRODUCT(DF!K216:S216,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-8.3348592067124944E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="30">
+        <f>SUMPRODUCT(DF!K217:S217,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-5.2994865127354539E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="30">
+        <f>SUMPRODUCT(DF!K218:S218,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.6625012164391828E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="30">
+        <f>SUMPRODUCT(DF!K219:S219,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>2.5911667065538106E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="30">
+        <f>SUMPRODUCT(DF!K220:S220,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-5.3969178395804045E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="30">
+        <f>SUMPRODUCT(DF!K221:S221,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.1726306246959682E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="30">
+        <f>SUMPRODUCT(DF!K222:S222,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>9.1700518848662066E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="30">
+        <f>SUMPRODUCT(DF!K223:S223,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.4503265870211474E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="30">
+        <f>SUMPRODUCT(DF!K224:S224,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>8.0686011917613133E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="30">
+        <f>SUMPRODUCT(DF!K225:S225,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.697603793059696E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="30">
+        <f>SUMPRODUCT(DF!K226:S226,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.2714405809253227E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="30">
+        <f>SUMPRODUCT(DF!K227:S227,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>4.0567984695456874E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="30">
+        <f>SUMPRODUCT(DF!K228:S228,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-6.2744216152787477E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="30">
+        <f>SUMPRODUCT(DF!K229:S229,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>5.9918556922657854E-4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="30">
+        <f>SUMPRODUCT(DF!K230:S230,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.2471225601630661E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="30">
+        <f>SUMPRODUCT(DF!K231:S231,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.1595167582053846E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="30">
+        <f>SUMPRODUCT(DF!K232:S232,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-6.6599664831816247E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="30">
+        <f>SUMPRODUCT(DF!K233:S233,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.5090349481619366E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="30">
+        <f>SUMPRODUCT(DF!K234:S234,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>7.4712644305810439E-4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="30">
+        <f>SUMPRODUCT(DF!K235:S235,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-6.7376437487158092E-4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="30">
+        <f>SUMPRODUCT(DF!K236:S236,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>6.778566108230149E-4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="30">
+        <f>SUMPRODUCT(DF!K237:S237,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-8.9750644456597865E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="30">
+        <f>SUMPRODUCT(DF!K238:S238,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.2607500814631229E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="30">
+        <f>SUMPRODUCT(DF!K239:S239,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-6.7398709382087535E-4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="30">
+        <f>SUMPRODUCT(DF!K240:S240,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.0632206191536849E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="30">
+        <f>SUMPRODUCT(DF!K241:S241,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.667082546898702E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="30">
+        <f>SUMPRODUCT(DF!K242:S242,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.1682911998960677E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="30">
+        <f>SUMPRODUCT(DF!K243:S243,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>5.3056907220644066E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="30">
+        <f>SUMPRODUCT(DF!K244:S244,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-2.3342882607974057E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="30">
+        <f>SUMPRODUCT(DF!K245:S245,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-4.2745177884547601E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="30">
+        <f>SUMPRODUCT(DF!K246:S246,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>1.5848739359105484E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="30">
+        <f>SUMPRODUCT(DF!K247:S247,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>3.7544321534570897E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A247" s="30">
+        <f>SUMPRODUCT(DF!K248:S248,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>6.4576441551107214E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="30">
+        <f>SUMPRODUCT(DF!K249:S249,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-9.3051908617217162E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A249" s="30">
+        <f>SUMPRODUCT(DF!K250:S250,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>-1.9897596151551762E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="30">
+        <f>SUMPRODUCT(DF!K251:S251,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>9.1687148228458484E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="30">
+        <f>SUMPRODUCT(DF!K252:S252,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
+        <v>6.3636577765269833E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Financial_proyect/Portafolio_Inversion.xlsx
+++ b/Financial_proyect/Portafolio_Inversion.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
     <sheet name="inversion optima (SOLVER)" sheetId="2" r:id="rId2"/>
+    <sheet name="markiwiz" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'inversion optima (SOLVER)'!$E$15:$M$15</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -196,18 +197,142 @@
   <si>
     <t>Utilidad</t>
   </si>
+  <si>
+    <t>corr Nas/s&amp;p</t>
+  </si>
+  <si>
+    <t>corr Nas/app</t>
+  </si>
+  <si>
+    <t>corr Nas/micr</t>
+  </si>
+  <si>
+    <t>corr Nas/goo</t>
+  </si>
+  <si>
+    <t>corr Nas/nv</t>
+  </si>
+  <si>
+    <t>corr Nas/ni</t>
+  </si>
+  <si>
+    <t>corr Nas/pet</t>
+  </si>
+  <si>
+    <t>corr Nas/or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cov </t>
+  </si>
+  <si>
+    <t xml:space="preserve">portafolio </t>
+  </si>
+  <si>
+    <t>w total</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Aleatorio A</t>
+  </si>
+  <si>
+    <t>Aleatorio B</t>
+  </si>
+  <si>
+    <t>Aleatorio C</t>
+  </si>
+  <si>
+    <t>Aleatorio D</t>
+  </si>
+  <si>
+    <t>Aleatorio E</t>
+  </si>
+  <si>
+    <t>Aleatorio F</t>
+  </si>
+  <si>
+    <t>Aleatorio G</t>
+  </si>
+  <si>
+    <t>Aleatorio H</t>
+  </si>
+  <si>
+    <t>Aleatorio I</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>WG</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>VAR P</t>
+  </si>
+  <si>
+    <t>RIESGO</t>
+  </si>
+  <si>
+    <t>RENTABILIDAD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -236,7 +361,7 @@
       <name val="Segoe Print"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +371,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +491,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,7 +554,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -416,12 +565,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -444,9 +587,29 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -17851,8 +18014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17881,7 +18044,7 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+      <c r="A2" s="28">
         <f>SUMPRODUCT(DF!K3:S3,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.6230216986039535E-2</v>
       </c>
@@ -17919,7 +18082,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="A3" s="28">
         <f>SUMPRODUCT(DF!K4:S4,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.0396929919865665E-2</v>
       </c>
@@ -17964,10 +18127,10 @@
         <f>AVERAGE(DF!S3:S252)</f>
         <v>2.4740669017002051E-4</v>
       </c>
-      <c r="N3" s="32"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="28">
         <f>SUMPRODUCT(DF!K5:S5,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-6.1491587044521269E-3</v>
       </c>
@@ -18012,11 +18175,11 @@
         <f t="shared" si="0"/>
         <v>6.3796403531682699E-2</v>
       </c>
-      <c r="N4" s="33"/>
+      <c r="N4" s="31"/>
       <c r="O4" s="25"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="28">
         <f>SUMPRODUCT(DF!K6:S6,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.4225288230311026E-2</v>
       </c>
@@ -18063,7 +18226,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="28">
         <f>SUMPRODUCT(DF!K7:S7,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.3917325943808808E-2</v>
       </c>
@@ -18111,7 +18274,7 @@
       <c r="O6" s="25"/>
     </row>
     <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="28">
         <f>SUMPRODUCT(DF!K8:S8,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>5.6323714517960526E-3</v>
       </c>
@@ -18158,7 +18321,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="28">
         <f>SUMPRODUCT(DF!K9:S9,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.466195496255737E-2</v>
       </c>
@@ -18205,7 +18368,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="28">
         <f>SUMPRODUCT(DF!K10:S10,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>5.6705776066861757E-3</v>
       </c>
@@ -18218,7 +18381,7 @@
         <f>CORREL(DF!$K$3:$K$252,DF!K3:K252)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="3">
         <f>CORREL(DF!$K$3:$K$252,DF!L3:L252)</f>
         <v>0.95863519400703934</v>
       </c>
@@ -18252,7 +18415,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="28">
         <f>SUMPRODUCT(DF!K11:S11,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.9188791565028863E-3</v>
       </c>
@@ -18299,7 +18462,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="28">
         <f>SUMPRODUCT(DF!K12:S12,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>6.0390398779905747E-3</v>
       </c>
@@ -18346,7 +18509,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="28">
         <f>SUMPRODUCT(DF!K13:S13,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.6344511457067286E-2</v>
       </c>
@@ -18384,7 +18547,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="28">
         <f>SUMPRODUCT(DF!K14:S14,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.0604038810490295E-2</v>
       </c>
@@ -18398,19 +18561,19 @@
         <v>0.32836495102203705</v>
       </c>
       <c r="F13" s="24">
-        <f t="shared" ref="F13:I13" si="6">(F4-F12)/F6</f>
+        <f>(F4-F12)/F6</f>
         <v>8.8843012295018453E-2</v>
       </c>
       <c r="G13" s="24">
-        <f t="shared" si="6"/>
+        <f>(G4-G12)/G6</f>
         <v>0.29626430626196931</v>
       </c>
       <c r="H13" s="24">
-        <f t="shared" si="6"/>
+        <f>(H4-H12)/H6</f>
         <v>0.56719763243398025</v>
       </c>
       <c r="I13" s="24">
-        <f t="shared" si="6"/>
+        <f>(I4-I12)/I6</f>
         <v>0.60996122731821212</v>
       </c>
       <c r="J13" s="24">
@@ -18418,7 +18581,7 @@
         <v>5.0542434886438379</v>
       </c>
       <c r="K13" s="24">
-        <f t="shared" ref="K13" si="7">(K4-K12)/K6</f>
+        <f>(K4-K12)/K6</f>
         <v>-0.20034455261421152</v>
       </c>
       <c r="L13" s="24">
@@ -18426,12 +18589,12 @@
         <v>-0.56793811300322539</v>
       </c>
       <c r="M13" s="24">
-        <f t="shared" ref="M13" si="8">(M4-M12)/M6</f>
+        <f>(M4-M12)/M6</f>
         <v>-0.42279171040601921</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="A14" s="28">
         <f>SUMPRODUCT(DF!K15:S15,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.6786609494745374E-3</v>
       </c>
@@ -18440,45 +18603,45 @@
       <c r="D14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="29">
         <f>(E4-E12)/E8</f>
         <v>7.127141908692125E-2</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="29">
         <f>(F4-F12)/F8</f>
         <v>2.0115392775799098E-2</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="29">
         <f>(G4-G12)/G8</f>
         <v>7.6114697300159809E-2</v>
       </c>
-      <c r="H14" s="31">
-        <f t="shared" ref="H14:K14" si="9">(H4-H12)/H8</f>
+      <c r="H14" s="29">
+        <f>(H4-H12)/H8</f>
         <v>0.14887665346700754</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="29">
         <f>(I4-I12)/I8</f>
         <v>0.1728678820856793</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="29">
         <f>(J4-J12)/J8</f>
         <v>-143.23781145676264</v>
       </c>
-      <c r="K14" s="31">
-        <f t="shared" si="9"/>
+      <c r="K14" s="29">
+        <f>(K4-K12)/K8</f>
         <v>-7.4557391779413312E-2</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="29">
         <f>(L4-L12)/L8</f>
         <v>-1.2813148360058717</v>
       </c>
-      <c r="M14" s="31">
-        <f t="shared" ref="M14" si="10">(M4-M12)/M8</f>
+      <c r="M14" s="29">
+        <f>(M4-M12)/M8</f>
         <v>-0.44442549893832617</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="28">
         <f>SUMPRODUCT(DF!K16:S16,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-5.4456647917206519E-3</v>
       </c>
@@ -18511,44 +18674,45 @@
       <c r="L15" s="26">
         <v>0</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="27">
         <v>0.31644991906690101</v>
       </c>
-      <c r="N15" s="29"/>
+      <c r="N15" s="27"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
+      <c r="A16" s="28">
         <f>SUMPRODUCT(DF!K17:S17,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.0319413821774402E-2</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
     </row>
     <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30">
+      <c r="A17" s="28">
         <f>SUMPRODUCT(DF!K18:S18,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>9.1154486088572233E-4</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="28">
         <f>SUMPRODUCT(DF!K19:S19,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-5.0782846276560285E-3</v>
       </c>
@@ -18557,7 +18721,7 @@
       <c r="D18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="32">
         <f>SUM(E15:M15)</f>
         <v>1.0000000000002462</v>
       </c>
@@ -18565,7 +18729,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="28">
         <f>SUMPRODUCT(DF!K20:S20,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.1726237059868194E-2</v>
       </c>
@@ -18582,7 +18746,7 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
+      <c r="A20" s="28">
         <f>SUMPRODUCT(DF!K21:S21,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-8.611348333234967E-3</v>
       </c>
@@ -18599,7 +18763,7 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+      <c r="A21" s="28">
         <f>SUMPRODUCT(DF!K22:S22,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>7.9172893357875931E-3</v>
       </c>
@@ -18616,7 +18780,7 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+      <c r="A22" s="28">
         <f>SUMPRODUCT(DF!K23:S23,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.9916435697425489E-2</v>
       </c>
@@ -18626,14 +18790,14 @@
         <v>37</v>
       </c>
       <c r="E22" s="12">
-        <f>E21*SQRT(250)</f>
-        <v>0.20000000047972807</v>
+        <f>E21*SQRT(251)</f>
+        <v>0.20039960127869216</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="28">
         <f>SUMPRODUCT(DF!K24:S24,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.097143849160619E-2</v>
       </c>
@@ -18644,13 +18808,13 @@
       </c>
       <c r="E23" s="3">
         <f>(E20-E12)/E22</f>
-        <v>2.0835580608694193</v>
+        <v>2.0794034045702103</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="28">
         <f>SUMPRODUCT(DF!K25:S25,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.1084736058049178E-2</v>
       </c>
@@ -18667,7 +18831,7 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
+      <c r="A25" s="28">
         <f>SUMPRODUCT(DF!K26:S26,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>3.6530869846875341E-2</v>
       </c>
@@ -18676,7 +18840,7 @@
       <c r="D25" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="35">
         <f>(E20-E12)/E24</f>
         <v>1.1193454190687431</v>
       </c>
@@ -18684,7 +18848,7 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+      <c r="A26" s="28">
         <f>SUMPRODUCT(DF!K27:S27,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>4.4804365021196883E-2</v>
       </c>
@@ -18693,7 +18857,7 @@
       <c r="D26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="34">
         <v>3</v>
       </c>
       <c r="F26" s="6"/>
@@ -18705,7 +18869,7 @@
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30">
+      <c r="A27" s="28">
         <f>SUMPRODUCT(DF!K28:S28,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>7.9973805680719073E-3</v>
       </c>
@@ -18714,9 +18878,9 @@
       <c r="D27" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="33">
         <f>+E20-((E26/2)*(E22^2))</f>
-        <v>0.47921161288558828</v>
+        <v>0.47897161288443696</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -18727,7 +18891,7 @@
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="A28" s="28">
         <f>SUMPRODUCT(DF!K29:S29,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>4.0725235776915315E-3</v>
       </c>
@@ -18744,7 +18908,7 @@
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
+      <c r="A29" s="28">
         <f>SUMPRODUCT(DF!K30:S30,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.0013873953384659E-2</v>
       </c>
@@ -18761,7 +18925,7 @@
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
+      <c r="A30" s="28">
         <f>SUMPRODUCT(DF!K31:S31,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-7.5987226998580808E-3</v>
       </c>
@@ -18778,7 +18942,7 @@
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
+      <c r="A31" s="28">
         <f>SUMPRODUCT(DF!K32:S32,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-8.3839455557136369E-3</v>
       </c>
@@ -18795,7 +18959,7 @@
       <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
+      <c r="A32" s="28">
         <f>SUMPRODUCT(DF!K33:S33,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-3.8978957291893246E-3</v>
       </c>
@@ -18812,7 +18976,7 @@
       <c r="L32" s="6"/>
     </row>
     <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="30">
+      <c r="A33" s="28">
         <f>SUMPRODUCT(DF!K34:S34,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>9.8973520120251585E-3</v>
       </c>
@@ -18829,7 +18993,7 @@
       <c r="L33" s="6"/>
     </row>
     <row r="34" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
+      <c r="A34" s="28">
         <f>SUMPRODUCT(DF!K35:S35,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.5261012293541387E-2</v>
       </c>
@@ -18846,7 +19010,7 @@
       <c r="L34" s="6"/>
     </row>
     <row r="35" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="30">
+      <c r="A35" s="28">
         <f>SUMPRODUCT(DF!K36:S36,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-3.5613056981349377E-4</v>
       </c>
@@ -18863,7 +19027,7 @@
       <c r="L35" s="6"/>
     </row>
     <row r="36" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
+      <c r="A36" s="28">
         <f>SUMPRODUCT(DF!K37:S37,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.0392386491832032E-2</v>
       </c>
@@ -18880,7 +19044,7 @@
       <c r="L36" s="6"/>
     </row>
     <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="30">
+      <c r="A37" s="28">
         <f>SUMPRODUCT(DF!K38:S38,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.3056535411099997E-2</v>
       </c>
@@ -18897,7 +19061,7 @@
       <c r="L37" s="6"/>
     </row>
     <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="30">
+      <c r="A38" s="28">
         <f>SUMPRODUCT(DF!K39:S39,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.5816548928856826E-2</v>
       </c>
@@ -18914,7 +19078,7 @@
       <c r="L38" s="6"/>
     </row>
     <row r="39" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="30">
+      <c r="A39" s="28">
         <f>SUMPRODUCT(DF!K40:S40,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.3370157330074456E-2</v>
       </c>
@@ -18931,7 +19095,7 @@
       <c r="L39" s="6"/>
     </row>
     <row r="40" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="30">
+      <c r="A40" s="28">
         <f>SUMPRODUCT(DF!K41:S41,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>7.4841220892891969E-4</v>
       </c>
@@ -18948,7 +19112,7 @@
       <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
+      <c r="A41" s="28">
         <f>SUMPRODUCT(DF!K42:S42,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-6.9594448492801405E-3</v>
       </c>
@@ -18965,7 +19129,7 @@
       <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="30">
+      <c r="A42" s="28">
         <f>SUMPRODUCT(DF!K43:S43,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.3253705964221223E-2</v>
       </c>
@@ -18982,7 +19146,7 @@
       <c r="L42" s="6"/>
     </row>
     <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="30">
+      <c r="A43" s="28">
         <f>SUMPRODUCT(DF!K44:S44,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-3.7636997907051981E-3</v>
       </c>
@@ -18999,7 +19163,7 @@
       <c r="L43" s="6"/>
     </row>
     <row r="44" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="30">
+      <c r="A44" s="28">
         <f>SUMPRODUCT(DF!K45:S45,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.092272765650641E-2</v>
       </c>
@@ -19016,7 +19180,7 @@
       <c r="L44" s="6"/>
     </row>
     <row r="45" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="30">
+      <c r="A45" s="28">
         <f>SUMPRODUCT(DF!K46:S46,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.2773000575617447E-3</v>
       </c>
@@ -19033,7 +19197,7 @@
       <c r="L45" s="6"/>
     </row>
     <row r="46" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="30">
+      <c r="A46" s="28">
         <f>SUMPRODUCT(DF!K47:S47,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>9.2464210250324929E-3</v>
       </c>
@@ -19050,7 +19214,7 @@
       <c r="L46" s="6"/>
     </row>
     <row r="47" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="30">
+      <c r="A47" s="28">
         <f>SUMPRODUCT(DF!K48:S48,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.2404660225987109E-2</v>
       </c>
@@ -19067,7 +19231,7 @@
       <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="30">
+      <c r="A48" s="28">
         <f>SUMPRODUCT(DF!K49:S49,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.0610249905627749E-3</v>
       </c>
@@ -19084,7 +19248,7 @@
       <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="30">
+      <c r="A49" s="28">
         <f>SUMPRODUCT(DF!K50:S50,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.6899934046000827E-2</v>
       </c>
@@ -19101,7 +19265,7 @@
       <c r="L49" s="6"/>
     </row>
     <row r="50" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="30">
+      <c r="A50" s="28">
         <f>SUMPRODUCT(DF!K51:S51,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.5158687780019E-2</v>
       </c>
@@ -19118,7 +19282,7 @@
       <c r="L50" s="6"/>
     </row>
     <row r="51" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="30">
+      <c r="A51" s="28">
         <f>SUMPRODUCT(DF!K52:S52,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-7.4637964926229589E-3</v>
       </c>
@@ -19135,7 +19299,7 @@
       <c r="L51" s="6"/>
     </row>
     <row r="52" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="30">
+      <c r="A52" s="28">
         <f>SUMPRODUCT(DF!K53:S53,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-9.3184765295766924E-3</v>
       </c>
@@ -19152,7 +19316,7 @@
       <c r="L52" s="6"/>
     </row>
     <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="30">
+      <c r="A53" s="28">
         <f>SUMPRODUCT(DF!K54:S54,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.4735008029970534E-2</v>
       </c>
@@ -19169,7 +19333,7 @@
       <c r="L53" s="6"/>
     </row>
     <row r="54" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="30">
+      <c r="A54" s="28">
         <f>SUMPRODUCT(DF!K55:S55,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.0554320691634608E-2</v>
       </c>
@@ -19186,7 +19350,7 @@
       <c r="L54" s="6"/>
     </row>
     <row r="55" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="30">
+      <c r="A55" s="28">
         <f>SUMPRODUCT(DF!K56:S56,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.368708305118644E-2</v>
       </c>
@@ -19203,7 +19367,7 @@
       <c r="L55" s="6"/>
     </row>
     <row r="56" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="30">
+      <c r="A56" s="28">
         <f>SUMPRODUCT(DF!K57:S57,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.1892030672907549E-2</v>
       </c>
@@ -19220,7 +19384,7 @@
       <c r="L56" s="6"/>
     </row>
     <row r="57" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="30">
+      <c r="A57" s="28">
         <f>SUMPRODUCT(DF!K58:S58,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-3.0371891254768733E-3</v>
       </c>
@@ -19237,7 +19401,7 @@
       <c r="L57" s="6"/>
     </row>
     <row r="58" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="30">
+      <c r="A58" s="28">
         <f>SUMPRODUCT(DF!K59:S59,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>6.1436465831857575E-3</v>
       </c>
@@ -19254,7 +19418,7 @@
       <c r="L58" s="6"/>
     </row>
     <row r="59" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="30">
+      <c r="A59" s="28">
         <f>SUMPRODUCT(DF!K60:S60,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.0342109061195006E-2</v>
       </c>
@@ -19271,7 +19435,7 @@
       <c r="L59" s="6"/>
     </row>
     <row r="60" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="30">
+      <c r="A60" s="28">
         <f>SUMPRODUCT(DF!K61:S61,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-6.0252718705928899E-3</v>
       </c>
@@ -19288,7 +19452,7 @@
       <c r="L60" s="6"/>
     </row>
     <row r="61" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="30">
+      <c r="A61" s="28">
         <f>SUMPRODUCT(DF!K62:S62,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.0785411801370328E-2</v>
       </c>
@@ -19305,7 +19469,7 @@
       <c r="L61" s="6"/>
     </row>
     <row r="62" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="30">
+      <c r="A62" s="28">
         <f>SUMPRODUCT(DF!K63:S63,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.0216652299138911E-2</v>
       </c>
@@ -19322,7 +19486,7 @@
       <c r="L62" s="6"/>
     </row>
     <row r="63" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="30">
+      <c r="A63" s="28">
         <f>SUMPRODUCT(DF!K64:S64,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>4.3645051325576813E-3</v>
       </c>
@@ -19339,7 +19503,7 @@
       <c r="L63" s="6"/>
     </row>
     <row r="64" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="30">
+      <c r="A64" s="28">
         <f>SUMPRODUCT(DF!K65:S65,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>3.0142267757748344E-2</v>
       </c>
@@ -19356,7 +19520,7 @@
       <c r="L64" s="6"/>
     </row>
     <row r="65" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="30">
+      <c r="A65" s="28">
         <f>SUMPRODUCT(DF!K66:S66,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>8.4128884112004733E-3</v>
       </c>
@@ -19373,7 +19537,7 @@
       <c r="L65" s="6"/>
     </row>
     <row r="66" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="30">
+      <c r="A66" s="28">
         <f>SUMPRODUCT(DF!K67:S67,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>5.1345308537090262E-3</v>
       </c>
@@ -19390,7 +19554,7 @@
       <c r="L66" s="6"/>
     </row>
     <row r="67" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="30">
+      <c r="A67" s="28">
         <f>SUMPRODUCT(DF!K68:S68,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.7989342102452836E-2</v>
       </c>
@@ -19407,7 +19571,7 @@
       <c r="L67" s="6"/>
     </row>
     <row r="68" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="30">
+      <c r="A68" s="28">
         <f>SUMPRODUCT(DF!K69:S69,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.2160094168032883E-2</v>
       </c>
@@ -19424,7 +19588,7 @@
       <c r="L68" s="6"/>
     </row>
     <row r="69" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="30">
+      <c r="A69" s="28">
         <f>SUMPRODUCT(DF!K70:S70,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.179176239968391E-2</v>
       </c>
@@ -19441,7 +19605,7 @@
       <c r="L69" s="6"/>
     </row>
     <row r="70" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="30">
+      <c r="A70" s="28">
         <f>SUMPRODUCT(DF!K71:S71,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-8.3183590003974676E-3</v>
       </c>
@@ -19458,7 +19622,7 @@
       <c r="L70" s="6"/>
     </row>
     <row r="71" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="30">
+      <c r="A71" s="28">
         <f>SUMPRODUCT(DF!K72:S72,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.6890090928620798E-2</v>
       </c>
@@ -19475,7 +19639,7 @@
       <c r="L71" s="6"/>
     </row>
     <row r="72" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="30">
+      <c r="A72" s="28">
         <f>SUMPRODUCT(DF!K73:S73,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.537814411287171E-2</v>
       </c>
@@ -19492,7 +19656,7 @@
       <c r="L72" s="6"/>
     </row>
     <row r="73" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="30">
+      <c r="A73" s="28">
         <f>SUMPRODUCT(DF!K74:S74,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>3.4533982338043771E-2</v>
       </c>
@@ -19509,7 +19673,7 @@
       <c r="L73" s="6"/>
     </row>
     <row r="74" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="30">
+      <c r="A74" s="28">
         <f>SUMPRODUCT(DF!K75:S75,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>7.4813845949737905E-3</v>
       </c>
@@ -19526,7 +19690,7 @@
       <c r="L74" s="6"/>
     </row>
     <row r="75" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="30">
+      <c r="A75" s="28">
         <f>SUMPRODUCT(DF!K76:S76,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>6.2733208927493009E-4</v>
       </c>
@@ -19543,7 +19707,7 @@
       <c r="L75" s="6"/>
     </row>
     <row r="76" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="30">
+      <c r="A76" s="28">
         <f>SUMPRODUCT(DF!K77:S77,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>6.9562503607665683E-3</v>
       </c>
@@ -19560,7 +19724,7 @@
       <c r="L76" s="6"/>
     </row>
     <row r="77" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="30">
+      <c r="A77" s="28">
         <f>SUMPRODUCT(DF!K78:S78,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.3001303025570945E-2</v>
       </c>
@@ -19577,7 +19741,7 @@
       <c r="L77" s="6"/>
     </row>
     <row r="78" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="30">
+      <c r="A78" s="28">
         <f>SUMPRODUCT(DF!K79:S79,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.8237103815248942E-2</v>
       </c>
@@ -19594,7 +19758,7 @@
       <c r="L78" s="6"/>
     </row>
     <row r="79" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="30">
+      <c r="A79" s="28">
         <f>SUMPRODUCT(DF!K80:S80,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-9.9782614693359967E-4</v>
       </c>
@@ -19611,7 +19775,7 @@
       <c r="L79" s="6"/>
     </row>
     <row r="80" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="30">
+      <c r="A80" s="28">
         <f>SUMPRODUCT(DF!K81:S81,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.989791038429163E-2</v>
       </c>
@@ -19619,7 +19783,7 @@
       <c r="C80" s="7"/>
     </row>
     <row r="81" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="30">
+      <c r="A81" s="28">
         <f>SUMPRODUCT(DF!K82:S82,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.0459504666670639E-2</v>
       </c>
@@ -19627,7 +19791,7 @@
       <c r="C81" s="7"/>
     </row>
     <row r="82" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="30">
+      <c r="A82" s="28">
         <f>SUMPRODUCT(DF!K83:S83,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-3.0046967544514157E-3</v>
       </c>
@@ -19635,7 +19799,7 @@
       <c r="C82" s="7"/>
     </row>
     <row r="83" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="30">
+      <c r="A83" s="28">
         <f>SUMPRODUCT(DF!K84:S84,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.2523575043458638E-2</v>
       </c>
@@ -19643,7 +19807,7 @@
       <c r="C83" s="7"/>
     </row>
     <row r="84" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="30">
+      <c r="A84" s="28">
         <f>SUMPRODUCT(DF!K85:S85,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.3524117024906088E-2</v>
       </c>
@@ -19651,7 +19815,7 @@
       <c r="C84" s="7"/>
     </row>
     <row r="85" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="30">
+      <c r="A85" s="28">
         <f>SUMPRODUCT(DF!K86:S86,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.043640351809345E-2</v>
       </c>
@@ -19659,7 +19823,7 @@
       <c r="C85" s="7"/>
     </row>
     <row r="86" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="30">
+      <c r="A86" s="28">
         <f>SUMPRODUCT(DF!K87:S87,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-7.1220678806043361E-3</v>
       </c>
@@ -19667,7 +19831,7 @@
       <c r="C86" s="7"/>
     </row>
     <row r="87" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="30">
+      <c r="A87" s="28">
         <f>SUMPRODUCT(DF!K88:S88,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.5289736675704232E-2</v>
       </c>
@@ -19675,7 +19839,7 @@
       <c r="C87" s="7"/>
     </row>
     <row r="88" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="30">
+      <c r="A88" s="28">
         <f>SUMPRODUCT(DF!K89:S89,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>8.3122140954382476E-3</v>
       </c>
@@ -19683,7 +19847,7 @@
       <c r="C88" s="7"/>
     </row>
     <row r="89" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="30">
+      <c r="A89" s="28">
         <f>SUMPRODUCT(DF!K90:S90,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.0539813136648041E-2</v>
       </c>
@@ -19691,7 +19855,7 @@
       <c r="C89" s="7"/>
     </row>
     <row r="90" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="30">
+      <c r="A90" s="28">
         <f>SUMPRODUCT(DF!K91:S91,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.8864206401811436E-3</v>
       </c>
@@ -19699,7 +19863,7 @@
       <c r="C90" s="7"/>
     </row>
     <row r="91" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="30">
+      <c r="A91" s="28">
         <f>SUMPRODUCT(DF!K92:S92,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.1938142332644845E-2</v>
       </c>
@@ -19707,970 +19871,970 @@
       <c r="C91" s="7"/>
     </row>
     <row r="92" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="30">
+      <c r="A92" s="28">
         <f>SUMPRODUCT(DF!K93:S93,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.4735001160453967E-2</v>
       </c>
       <c r="B92" s="6"/>
     </row>
     <row r="93" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="30">
+      <c r="A93" s="28">
         <f>SUMPRODUCT(DF!K94:S94,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.3840529289354182E-2</v>
       </c>
       <c r="B93" s="6"/>
     </row>
     <row r="94" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="30">
+      <c r="A94" s="28">
         <f>SUMPRODUCT(DF!K95:S95,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-7.7531316473819344E-3</v>
       </c>
       <c r="B94" s="6"/>
     </row>
     <row r="95" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="30">
+      <c r="A95" s="28">
         <f>SUMPRODUCT(DF!K96:S96,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>4.233591667301749E-2</v>
       </c>
       <c r="B95" s="6"/>
     </row>
     <row r="96" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="30">
+      <c r="A96" s="28">
         <f>SUMPRODUCT(DF!K97:S97,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-4.8006872537174226E-3</v>
       </c>
       <c r="B96" s="6"/>
     </row>
     <row r="97" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="30">
+      <c r="A97" s="28">
         <f>SUMPRODUCT(DF!K98:S98,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-4.471876641378679E-3</v>
       </c>
       <c r="B97" s="6"/>
     </row>
     <row r="98" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="30">
+      <c r="A98" s="28">
         <f>SUMPRODUCT(DF!K99:S99,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.0947292584255234E-3</v>
       </c>
       <c r="B98" s="6"/>
     </row>
     <row r="99" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="30">
+      <c r="A99" s="28">
         <f>SUMPRODUCT(DF!K100:S100,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-6.5004343589365153E-3</v>
       </c>
       <c r="B99" s="6"/>
     </row>
     <row r="100" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="30">
+      <c r="A100" s="28">
         <f>SUMPRODUCT(DF!K101:S101,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>8.7103893131175794E-3</v>
       </c>
       <c r="B100" s="6"/>
     </row>
     <row r="101" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="30">
+      <c r="A101" s="28">
         <f>SUMPRODUCT(DF!K102:S102,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.2133196881341629E-2</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="30">
+      <c r="A102" s="28">
         <f>SUMPRODUCT(DF!K103:S103,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>5.2924445293757918E-3</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="30">
+      <c r="A103" s="28">
         <f>SUMPRODUCT(DF!K104:S104,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.5348961767296288E-3</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="30">
+      <c r="A104" s="28">
         <f>SUMPRODUCT(DF!K105:S105,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.0611747029985559E-3</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="30">
+      <c r="A105" s="28">
         <f>SUMPRODUCT(DF!K106:S106,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-9.5025220110721773E-3</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="30">
+      <c r="A106" s="28">
         <f>SUMPRODUCT(DF!K107:S107,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-9.7251827704600766E-3</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="30">
+      <c r="A107" s="28">
         <f>SUMPRODUCT(DF!K108:S108,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>9.4560825723866062E-4</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="30">
+      <c r="A108" s="28">
         <f>SUMPRODUCT(DF!K109:S109,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.5677745644702842E-2</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="30">
+      <c r="A109" s="28">
         <f>SUMPRODUCT(DF!K110:S110,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>7.638938522053218E-3</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="30">
+      <c r="A110" s="28">
         <f>SUMPRODUCT(DF!K111:S111,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.2585062297840561E-2</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="30">
+      <c r="A111" s="28">
         <f>SUMPRODUCT(DF!K112:S112,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.232982699109509E-2</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="30">
+      <c r="A112" s="28">
         <f>SUMPRODUCT(DF!K113:S113,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.3200630817986451E-2</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="30">
+      <c r="A113" s="28">
         <f>SUMPRODUCT(DF!K114:S114,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.7635977377073106E-3</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="30">
+      <c r="A114" s="28">
         <f>SUMPRODUCT(DF!K115:S115,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>3.3888814847598762E-3</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="30">
+      <c r="A115" s="28">
         <f>SUMPRODUCT(DF!K116:S116,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>9.2191718659188661E-3</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="30">
+      <c r="A116" s="28">
         <f>SUMPRODUCT(DF!K117:S117,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.2832241799058657E-3</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="30">
+      <c r="A117" s="28">
         <f>SUMPRODUCT(DF!K118:S118,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-4.1165809113910649E-3</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="30">
+      <c r="A118" s="28">
         <f>SUMPRODUCT(DF!K119:S119,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-8.5737284456812429E-3</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="30">
+      <c r="A119" s="28">
         <f>SUMPRODUCT(DF!K120:S120,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>7.9045526177397678E-3</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="30">
+      <c r="A120" s="28">
         <f>SUMPRODUCT(DF!K121:S121,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>8.2110094272451178E-3</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="30">
+      <c r="A121" s="28">
         <f>SUMPRODUCT(DF!K122:S122,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>9.0723278843407116E-3</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="30">
+      <c r="A122" s="28">
         <f>SUMPRODUCT(DF!K123:S123,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>6.3957055694769723E-3</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="30">
+      <c r="A123" s="28">
         <f>SUMPRODUCT(DF!K124:S124,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.3188361094479307E-3</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="30">
+      <c r="A124" s="28">
         <f>SUMPRODUCT(DF!K125:S125,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.3831010270928361E-3</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="30">
+      <c r="A125" s="28">
         <f>SUMPRODUCT(DF!K126:S126,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.3840895313515719E-4</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="30">
+      <c r="A126" s="28">
         <f>SUMPRODUCT(DF!K127:S127,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.0067549085876067E-2</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="30">
+      <c r="A127" s="28">
         <f>SUMPRODUCT(DF!K128:S128,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.0583533893497202E-2</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="30">
+      <c r="A128" s="28">
         <f>SUMPRODUCT(DF!K129:S129,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-8.6930613236903074E-3</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="30">
+      <c r="A129" s="28">
         <f>SUMPRODUCT(DF!K130:S130,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.0372833161531509E-4</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="30">
+      <c r="A130" s="28">
         <f>SUMPRODUCT(DF!K131:S131,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.5145863052118107E-2</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="30">
+      <c r="A131" s="28">
         <f>SUMPRODUCT(DF!K132:S132,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.8388155128677428E-3</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="30">
+      <c r="A132" s="28">
         <f>SUMPRODUCT(DF!K133:S133,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>5.5837055066072219E-3</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="30">
+      <c r="A133" s="28">
         <f>SUMPRODUCT(DF!K134:S134,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>4.23159386593004E-3</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="30">
+      <c r="A134" s="28">
         <f>SUMPRODUCT(DF!K135:S135,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.1715727482911753E-2</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="30">
+      <c r="A135" s="28">
         <f>SUMPRODUCT(DF!K136:S136,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>8.9505870887247006E-4</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="30">
+      <c r="A136" s="28">
         <f>SUMPRODUCT(DF!K137:S137,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-4.7942806150124166E-3</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="30">
+      <c r="A137" s="28">
         <f>SUMPRODUCT(DF!K138:S138,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-9.1276601351648352E-3</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="30">
+      <c r="A138" s="28">
         <f>SUMPRODUCT(DF!K139:S139,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>4.5254217426388636E-3</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="30">
+      <c r="A139" s="28">
         <f>SUMPRODUCT(DF!K140:S140,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>5.0499462938288697E-3</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="30">
+      <c r="A140" s="28">
         <f>SUMPRODUCT(DF!K141:S141,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.5515088790013927E-2</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="30">
+      <c r="A141" s="28">
         <f>SUMPRODUCT(DF!K142:S142,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.6109001268342839E-2</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="30">
+      <c r="A142" s="28">
         <f>SUMPRODUCT(DF!K143:S143,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.02856225350222E-2</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="30">
+      <c r="A143" s="28">
         <f>SUMPRODUCT(DF!K144:S144,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-3.0371013197868345E-3</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="30">
+      <c r="A144" s="28">
         <f>SUMPRODUCT(DF!K145:S145,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.0369897157611521E-3</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="30">
+      <c r="A145" s="28">
         <f>SUMPRODUCT(DF!K146:S146,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.1296633123060668E-2</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="30">
+      <c r="A146" s="28">
         <f>SUMPRODUCT(DF!K147:S147,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>7.2446846808294678E-3</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="30">
+      <c r="A147" s="28">
         <f>SUMPRODUCT(DF!K148:S148,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-4.7174310151936946E-3</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="30">
+      <c r="A148" s="28">
         <f>SUMPRODUCT(DF!K149:S149,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>3.8793377243147931E-3</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="30">
+      <c r="A149" s="28">
         <f>SUMPRODUCT(DF!K150:S150,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.206934460527088E-3</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="30">
+      <c r="A150" s="28">
         <f>SUMPRODUCT(DF!K151:S151,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.1516759501867808E-3</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="30">
+      <c r="A151" s="28">
         <f>SUMPRODUCT(DF!K152:S152,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>6.4083164813491045E-3</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="30">
+      <c r="A152" s="28">
         <f>SUMPRODUCT(DF!K153:S153,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>3.9952246612995762E-3</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="30">
+      <c r="A153" s="28">
         <f>SUMPRODUCT(DF!K154:S154,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>7.9519205328530788E-3</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="30">
+      <c r="A154" s="28">
         <f>SUMPRODUCT(DF!K155:S155,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.8732438254902138E-2</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="30">
+      <c r="A155" s="28">
         <f>SUMPRODUCT(DF!K156:S156,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-3.7792259144302808E-3</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="30">
+      <c r="A156" s="28">
         <f>SUMPRODUCT(DF!K157:S157,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.5876438992601749E-3</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="30">
+      <c r="A157" s="28">
         <f>SUMPRODUCT(DF!K158:S158,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-4.4282656535526007E-3</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="30">
+      <c r="A158" s="28">
         <f>SUMPRODUCT(DF!K159:S159,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-6.0999902388953024E-3</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="30">
+      <c r="A159" s="28">
         <f>SUMPRODUCT(DF!K160:S160,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>6.8572348755621321E-2</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="30">
+      <c r="A160" s="28">
         <f>SUMPRODUCT(DF!K161:S161,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.1489911461105892E-2</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="30">
+      <c r="A161" s="28">
         <f>SUMPRODUCT(DF!K162:S162,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.5793872145104981E-2</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="30">
+      <c r="A162" s="28">
         <f>SUMPRODUCT(DF!K163:S163,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.7813877246799639E-2</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="30">
+      <c r="A163" s="28">
         <f>SUMPRODUCT(DF!K164:S164,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.5128804121151371E-2</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="30">
+      <c r="A164" s="28">
         <f>SUMPRODUCT(DF!K165:S165,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.5082851921017358E-3</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="30">
+      <c r="A165" s="28">
         <f>SUMPRODUCT(DF!K166:S166,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.7916360193963831E-3</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="30">
+      <c r="A166" s="28">
         <f>SUMPRODUCT(DF!K167:S167,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.9515982245702987E-3</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="30">
+      <c r="A167" s="28">
         <f>SUMPRODUCT(DF!K168:S168,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-9.464589799092973E-3</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="30">
+      <c r="A168" s="28">
         <f>SUMPRODUCT(DF!K169:S169,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-6.7944964374646276E-4</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="30">
+      <c r="A169" s="28">
         <f>SUMPRODUCT(DF!K170:S170,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>8.86174168951602E-3</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="30">
+      <c r="A170" s="28">
         <f>SUMPRODUCT(DF!K171:S171,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>5.68413326720705E-3</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="30">
+      <c r="A171" s="28">
         <f>SUMPRODUCT(DF!K172:S172,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.6592326583472778E-2</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="30">
+      <c r="A172" s="28">
         <f>SUMPRODUCT(DF!K173:S173,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.5130235701203061E-2</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="30">
+      <c r="A173" s="28">
         <f>SUMPRODUCT(DF!K174:S174,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.9441653374628067E-3</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="30">
+      <c r="A174" s="28">
         <f>SUMPRODUCT(DF!K175:S175,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>7.6892831491745597E-3</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="30">
+      <c r="A175" s="28">
         <f>SUMPRODUCT(DF!K176:S176,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>5.7161465550052909E-3</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="30">
+      <c r="A176" s="28">
         <f>SUMPRODUCT(DF!K177:S177,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.0839616801796991E-2</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="30">
+      <c r="A177" s="28">
         <f>SUMPRODUCT(DF!K178:S178,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-4.5136607187801093E-3</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="30">
+      <c r="A178" s="28">
         <f>SUMPRODUCT(DF!K179:S179,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-5.2597805368179446E-3</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="30">
+      <c r="A179" s="28">
         <f>SUMPRODUCT(DF!K180:S180,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.4247456337265853E-2</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="30">
+      <c r="A180" s="28">
         <f>SUMPRODUCT(DF!K181:S181,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>5.4710232474404772E-3</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="30">
+      <c r="A181" s="28">
         <f>SUMPRODUCT(DF!K182:S182,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-4.1520046952667079E-3</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="30">
+      <c r="A182" s="28">
         <f>SUMPRODUCT(DF!K183:S183,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.4372514379951285E-3</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="30">
+      <c r="A183" s="28">
         <f>SUMPRODUCT(DF!K184:S184,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.1995049852479426E-2</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="30">
+      <c r="A184" s="28">
         <f>SUMPRODUCT(DF!K185:S185,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>7.4693517154640465E-3</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="30">
+      <c r="A185" s="28">
         <f>SUMPRODUCT(DF!K186:S186,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.3175290619404307E-3</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="30">
+      <c r="A186" s="28">
         <f>SUMPRODUCT(DF!K187:S187,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.5892274899840062E-3</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="30">
+      <c r="A187" s="28">
         <f>SUMPRODUCT(DF!K188:S188,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.8772814929150007E-4</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="30">
+      <c r="A188" s="28">
         <f>SUMPRODUCT(DF!K189:S189,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.2203557689428736E-3</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="30">
+      <c r="A189" s="28">
         <f>SUMPRODUCT(DF!K190:S190,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.3785119115397365E-3</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="30">
+      <c r="A190" s="28">
         <f>SUMPRODUCT(DF!K191:S191,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.446155014043868E-2</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="30">
+      <c r="A191" s="28">
         <f>SUMPRODUCT(DF!K192:S192,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.3522039288506817E-2</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="30">
+      <c r="A192" s="28">
         <f>SUMPRODUCT(DF!K193:S193,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.8357912194237689E-3</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="30">
+      <c r="A193" s="28">
         <f>SUMPRODUCT(DF!K194:S194,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>7.2576681185126035E-3</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="30">
+      <c r="A194" s="28">
         <f>SUMPRODUCT(DF!K195:S195,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>8.7499260950572033E-3</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="30">
+      <c r="A195" s="28">
         <f>SUMPRODUCT(DF!K196:S196,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>3.2503162881593311E-3</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="30">
+      <c r="A196" s="28">
         <f>SUMPRODUCT(DF!K197:S197,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.2493896922731992E-2</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="30">
+      <c r="A197" s="28">
         <f>SUMPRODUCT(DF!K198:S198,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.5688340115685439E-2</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="30">
+      <c r="A198" s="28">
         <f>SUMPRODUCT(DF!K199:S199,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>5.295939446933668E-4</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="30">
+      <c r="A199" s="28">
         <f>SUMPRODUCT(DF!K200:S200,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>9.1385623600364427E-3</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="30">
+      <c r="A200" s="28">
         <f>SUMPRODUCT(DF!K201:S201,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.1825743240149334E-3</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="30">
+      <c r="A201" s="28">
         <f>SUMPRODUCT(DF!K202:S202,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>7.2825462021658899E-3</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="30">
+      <c r="A202" s="28">
         <f>SUMPRODUCT(DF!K203:S203,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-4.4194812328329607E-4</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="30">
+      <c r="A203" s="28">
         <f>SUMPRODUCT(DF!K204:S204,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>7.8147474870714217E-3</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="30">
+      <c r="A204" s="28">
         <f>SUMPRODUCT(DF!K205:S205,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-6.8841002594357116E-4</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="30">
+      <c r="A205" s="28">
         <f>SUMPRODUCT(DF!K206:S206,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.1347395041714467E-2</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="30">
+      <c r="A206" s="28">
         <f>SUMPRODUCT(DF!K207:S207,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-6.5245500996159002E-3</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="30">
+      <c r="A207" s="28">
         <f>SUMPRODUCT(DF!K208:S208,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>4.8569359129880743E-4</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="30">
+      <c r="A208" s="28">
         <f>SUMPRODUCT(DF!K209:S209,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>3.4332970107148414E-3</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="30">
+      <c r="A209" s="28">
         <f>SUMPRODUCT(DF!K210:S210,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-3.5843273366745376E-3</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="30">
+      <c r="A210" s="28">
         <f>SUMPRODUCT(DF!K211:S211,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.945805842151855E-2</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="30">
+      <c r="A211" s="28">
         <f>SUMPRODUCT(DF!K212:S212,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-6.4078268591680875E-3</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="30">
+      <c r="A212" s="28">
         <f>SUMPRODUCT(DF!K213:S213,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.273657412670671E-2</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="30">
+      <c r="A213" s="28">
         <f>SUMPRODUCT(DF!K214:S214,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.2681096437901827E-2</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="30">
+      <c r="A214" s="28">
         <f>SUMPRODUCT(DF!K215:S215,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>3.6136454427134145E-3</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="30">
+      <c r="A215" s="28">
         <f>SUMPRODUCT(DF!K216:S216,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-8.3348592067124944E-3</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="30">
+      <c r="A216" s="28">
         <f>SUMPRODUCT(DF!K217:S217,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-5.2994865127354539E-3</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="30">
+      <c r="A217" s="28">
         <f>SUMPRODUCT(DF!K218:S218,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.6625012164391828E-3</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="30">
+      <c r="A218" s="28">
         <f>SUMPRODUCT(DF!K219:S219,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>2.5911667065538106E-2</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="30">
+      <c r="A219" s="28">
         <f>SUMPRODUCT(DF!K220:S220,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-5.3969178395804045E-3</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="30">
+      <c r="A220" s="28">
         <f>SUMPRODUCT(DF!K221:S221,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.1726306246959682E-2</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="30">
+      <c r="A221" s="28">
         <f>SUMPRODUCT(DF!K222:S222,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>9.1700518848662066E-3</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="30">
+      <c r="A222" s="28">
         <f>SUMPRODUCT(DF!K223:S223,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.4503265870211474E-2</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="30">
+      <c r="A223" s="28">
         <f>SUMPRODUCT(DF!K224:S224,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>8.0686011917613133E-3</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="30">
+      <c r="A224" s="28">
         <f>SUMPRODUCT(DF!K225:S225,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.697603793059696E-2</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="30">
+      <c r="A225" s="28">
         <f>SUMPRODUCT(DF!K226:S226,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.2714405809253227E-2</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="30">
+      <c r="A226" s="28">
         <f>SUMPRODUCT(DF!K227:S227,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>4.0567984695456874E-3</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="30">
+      <c r="A227" s="28">
         <f>SUMPRODUCT(DF!K228:S228,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-6.2744216152787477E-3</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="30">
+      <c r="A228" s="28">
         <f>SUMPRODUCT(DF!K229:S229,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>5.9918556922657854E-4</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="30">
+      <c r="A229" s="28">
         <f>SUMPRODUCT(DF!K230:S230,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.2471225601630661E-2</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="30">
+      <c r="A230" s="28">
         <f>SUMPRODUCT(DF!K231:S231,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.1595167582053846E-2</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="30">
+      <c r="A231" s="28">
         <f>SUMPRODUCT(DF!K232:S232,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-6.6599664831816247E-3</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="30">
+      <c r="A232" s="28">
         <f>SUMPRODUCT(DF!K233:S233,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.5090349481619366E-3</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="30">
+      <c r="A233" s="28">
         <f>SUMPRODUCT(DF!K234:S234,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>7.4712644305810439E-4</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="30">
+      <c r="A234" s="28">
         <f>SUMPRODUCT(DF!K235:S235,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-6.7376437487158092E-4</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="30">
+      <c r="A235" s="28">
         <f>SUMPRODUCT(DF!K236:S236,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>6.778566108230149E-4</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="30">
+      <c r="A236" s="28">
         <f>SUMPRODUCT(DF!K237:S237,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-8.9750644456597865E-3</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="30">
+      <c r="A237" s="28">
         <f>SUMPRODUCT(DF!K238:S238,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.2607500814631229E-3</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="30">
+      <c r="A238" s="28">
         <f>SUMPRODUCT(DF!K239:S239,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-6.7398709382087535E-4</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="30">
+      <c r="A239" s="28">
         <f>SUMPRODUCT(DF!K240:S240,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.0632206191536849E-2</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="30">
+      <c r="A240" s="28">
         <f>SUMPRODUCT(DF!K241:S241,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.667082546898702E-2</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="30">
+      <c r="A241" s="28">
         <f>SUMPRODUCT(DF!K242:S242,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.1682911998960677E-3</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="30">
+      <c r="A242" s="28">
         <f>SUMPRODUCT(DF!K243:S243,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>5.3056907220644066E-3</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="30">
+      <c r="A243" s="28">
         <f>SUMPRODUCT(DF!K244:S244,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-2.3342882607974057E-3</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A244" s="30">
+      <c r="A244" s="28">
         <f>SUMPRODUCT(DF!K245:S245,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-4.2745177884547601E-3</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A245" s="30">
+      <c r="A245" s="28">
         <f>SUMPRODUCT(DF!K246:S246,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>1.5848739359105484E-3</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A246" s="30">
+      <c r="A246" s="28">
         <f>SUMPRODUCT(DF!K247:S247,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>3.7544321534570897E-3</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A247" s="30">
+      <c r="A247" s="28">
         <f>SUMPRODUCT(DF!K248:S248,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>6.4576441551107214E-3</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="30">
+      <c r="A248" s="28">
         <f>SUMPRODUCT(DF!K249:S249,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-9.3051908617217162E-3</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A249" s="30">
+      <c r="A249" s="28">
         <f>SUMPRODUCT(DF!K250:S250,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>-1.9897596151551762E-3</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="30">
+      <c r="A250" s="28">
         <f>SUMPRODUCT(DF!K251:S251,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>9.1687148228458484E-3</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="30">
+      <c r="A251" s="28">
         <f>SUMPRODUCT(DF!K252:S252,'inversion optima (SOLVER)'!$E$15:$M$15)</f>
         <v>6.3636577765269833E-3</v>
       </c>
@@ -20681,4 +20845,3687 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.19377141908692108</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.13714156016164636</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.20262738648348999</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.29388379736716508</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.32988942314068304</v>
+      </c>
+      <c r="G3" s="13">
+        <v>2.7588834136544986</v>
+      </c>
+      <c r="H3" s="12">
+        <v>6.2318985254658621E-2</v>
+      </c>
+      <c r="I3" s="12">
+        <v>-6.9427385432114574E-2</v>
+      </c>
+      <c r="J3" s="12">
+        <v>6.3796403531682699E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.21704941061793759</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.16480260836976746</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.27045912987114284</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.30215887296940286</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.34000427216087548</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.52161780879335851</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.30038757710187131</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.33793714673807179</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.13884755784814826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0.95863519400703934</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0.84483017527756299</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="46">
+        <v>0.82692557198679495</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="46">
+        <v>9.6206357119124869E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="47">
+        <f>B7*B4*C4</f>
+        <v>3.4290677122244873E-2</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="47">
+        <f>E7*B4*D4</f>
+        <v>4.9594061331095111E-2</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="47">
+        <f>H7*B4*E4</f>
+        <v>5.4232594933093008E-2</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="47">
+        <f>K7*B4*I4</f>
+        <v>7.0566457188467975E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="40"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="46">
+        <v>0.76585495982182494</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="46">
+        <v>-7.6587359103907982E-3</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="46">
+        <v>0.58323750372174321</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="46">
+        <v>0.20648385787268017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="47">
+        <f>B10*B4*F4</f>
+        <v>5.6518355154700127E-2</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="47">
+        <f>E10*B4*G4</f>
+        <v>-8.6709786259430582E-4</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="47">
+        <f>H10*B4*H4</f>
+        <v>3.8026470840972749E-2</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="47">
+        <f>B4*K10*J4</f>
+        <v>6.2227587214651369E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="40"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="S14" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="T14" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="U14" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="V14" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="W14" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="25">
+        <f ca="1">SUM(L15:T15)</f>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f ca="1">RAND()</f>
+        <v>0.56764396293905894</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:K30" ca="1" si="0">RAND()</f>
+        <v>0.4366769499063714</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32695315560678917</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8485599349178083E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47831852961869858</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.140629701489144</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84410500723196413</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92707504727534085</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62500832165333142</v>
+      </c>
+      <c r="L15" s="44">
+        <f ca="1">C15/SUM($C15:$K15)</f>
+        <v>0.12857469973744162</v>
+      </c>
+      <c r="M15" s="44">
+        <f t="shared" ref="M15:T15" ca="1" si="1">D15/SUM($C15:$K15)</f>
+        <v>9.8909900187736544E-2</v>
+      </c>
+      <c r="N15" s="44">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.4056814755317057E-2</v>
+      </c>
+      <c r="O15" s="44">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5512391476987559E-2</v>
+      </c>
+      <c r="P15" s="44">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10834196316676273</v>
+      </c>
+      <c r="Q15" s="44">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.185345537634815E-2</v>
+      </c>
+      <c r="R15" s="44">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1911947539964807</v>
+      </c>
+      <c r="S15" s="44">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.20998795657111277</v>
+      </c>
+      <c r="T15" s="44">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14156806473181277</v>
+      </c>
+      <c r="U15">
+        <f ca="1">+(L15^2*$B$4^2)+(M15^2*$C$4^2)+(N15^2*$D$4^2)+(O15^2*$E$4^2)+(P15^2*$F$4^2)+(Q15^2*$G$4^2)+(R15^2*$H$4^2)+(S15^2*$I$4^2)+(T15^2*$J$4^2)+(2*L15*M15*$B$8)+(2*L15*N15*$E$8)+(2*L15*O15*$H$8)+(2*L15*P15*$B$11)+(2*L15*Q15*$E$11)+(2*L15*R15*$H$11)+(2*L15*S15*$K$8)+(2*L15*T15*$K$11)</f>
+        <v>1.78988858786348E-2</v>
+      </c>
+      <c r="V15" s="5">
+        <f ca="1">SQRT(U15)</f>
+        <v>0.1337867178707767</v>
+      </c>
+      <c r="W15" s="44">
+        <f ca="1">SUMPRODUCT(L15:T15,$B$3:$J$3)</f>
+        <v>0.18803205847198592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" s="25">
+        <f t="shared" ref="B16:B50" ca="1" si="2">SUM(L16:T16)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:K50" ca="1" si="3">RAND()</f>
+        <v>0.54428372609771924</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69344155296563736</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78770867216435581</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.347961570645555E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26512857399357947</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5169645212264794</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94930540687954312</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33613748286928546</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7778891945695299E-2</v>
+      </c>
+      <c r="L16" s="44">
+        <f ca="1">C16/SUM($C16:$K16)</f>
+        <v>0.12915382574767076</v>
+      </c>
+      <c r="M16" s="44">
+        <f ca="1">D16/SUM($C16:$K16)</f>
+        <v>0.16454768938257516</v>
+      </c>
+      <c r="N16" s="44">
+        <f t="shared" ref="N16" ca="1" si="4">E16/SUM($C16:$K16)</f>
+        <v>0.18691646232755263</v>
+      </c>
+      <c r="O16" s="44">
+        <f t="shared" ref="O16" ca="1" si="5">F16/SUM($C16:$K16)</f>
+        <v>1.5063164361465223E-2</v>
+      </c>
+      <c r="P16" s="44">
+        <f ca="1">G16/SUM($C16:$K16)</f>
+        <v>6.291271997382375E-2</v>
+      </c>
+      <c r="Q16" s="44">
+        <f t="shared" ref="Q16" ca="1" si="6">H16/SUM($C16:$K16)</f>
+        <v>0.12267121446182173</v>
+      </c>
+      <c r="R16" s="44">
+        <f t="shared" ref="R16" ca="1" si="7">I16/SUM($C16:$K16)</f>
+        <v>0.22526197132601714</v>
+      </c>
+      <c r="S16" s="44">
+        <f t="shared" ref="S16" ca="1" si="8">J16/SUM($C16:$K16)</f>
+        <v>7.9762520553418176E-2</v>
+      </c>
+      <c r="T16" s="44">
+        <f t="shared" ref="T16" ca="1" si="9">K16/SUM($C16:$K16)</f>
+        <v>1.3710431865655404E-2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ref="U16:U50" ca="1" si="10">+(L16^2*$B$4^2)+(M16^2*$C$4^2)+(N16^2*$D$4^2)+(O16^2*$E$4^2)+(P16^2*$F$4^2)+(Q16^2*$G$4^2)+(R16^2*$H$4^2)+(S16^2*$I$4^2)+(T16^2*$J$4^2)+(2*L16*M16*$B$8)+(2*L16*N16*$E$8)+(2*L16*O16*$H$8)+(2*L16*P16*$B$11)+(2*L16*Q16*$E$11)+(2*L16*R16*$H$11)+(2*L16*S16*$K$8)+(2*L16*T16*$K$11)</f>
+        <v>2.1292441601727358E-2</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" ref="V16:V50" ca="1" si="11">SQRT(U16)</f>
+        <v>0.14591929824984548</v>
+      </c>
+      <c r="W16" s="44">
+        <f t="shared" ref="W16:W50" ca="1" si="12">SUMPRODUCT(L16:T16,$B$3:$J$3)</f>
+        <v>0.4584587514014834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.8740176922533083E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.86873203610969E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49189650450722555</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62012449895924826</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22935513063517843</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80242334590497277</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8569084928320716</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20243167041273635</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9576290830961306</v>
+      </c>
+      <c r="L17" s="44">
+        <f t="shared" ref="L17:L50" ca="1" si="13">C17/SUM($C17:$K17)</f>
+        <v>1.3794614864517015E-2</v>
+      </c>
+      <c r="M17" s="44">
+        <f t="shared" ref="M17:M50" ca="1" si="14">D17/SUM($C17:$K17)</f>
+        <v>9.0853775470464658E-3</v>
+      </c>
+      <c r="N17" s="44">
+        <f t="shared" ref="N17:N50" ca="1" si="15">E17/SUM($C17:$K17)</f>
+        <v>0.11551757567615306</v>
+      </c>
+      <c r="O17" s="44">
+        <f t="shared" ref="O17:O50" ca="1" si="16">F17/SUM($C17:$K17)</f>
+        <v>0.14563079444714613</v>
+      </c>
+      <c r="P17" s="44">
+        <f t="shared" ref="P17:P50" ca="1" si="17">G17/SUM($C17:$K17)</f>
+        <v>5.3862038898619603E-2</v>
+      </c>
+      <c r="Q17" s="44">
+        <f t="shared" ref="Q17:Q50" ca="1" si="18">H17/SUM($C17:$K17)</f>
+        <v>0.18844207823299958</v>
+      </c>
+      <c r="R17" s="44">
+        <f t="shared" ref="R17:R50" ca="1" si="19">I17/SUM($C17:$K17)</f>
+        <v>0.20123743665841204</v>
+      </c>
+      <c r="S17" s="44">
+        <f t="shared" ref="S17:S50" ca="1" si="20">J17/SUM($C17:$K17)</f>
+        <v>4.7539300629061185E-2</v>
+      </c>
+      <c r="T17" s="44">
+        <f t="shared" ref="T17:T50" ca="1" si="21">K17/SUM($C17:$K17)</f>
+        <v>0.22489078304604496</v>
+      </c>
+      <c r="U17">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.8531127084047885E-2</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.13612908243299035</v>
+      </c>
+      <c r="W17" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.63137038794607458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.7266991936375966E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11238896252302422</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56132949523754738</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18930515512696888</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26154743924618473</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5157974282865303</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40573238536402856</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2512028143216064</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57680059092832869</v>
+      </c>
+      <c r="L18" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.9535905485524443E-2</v>
+      </c>
+      <c r="M18" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.8340064236398158E-2</v>
+      </c>
+      <c r="N18" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.19149041348952398</v>
+      </c>
+      <c r="O18" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>6.4579044462328081E-2</v>
+      </c>
+      <c r="P18" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>8.9223580291613286E-2</v>
+      </c>
+      <c r="Q18" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.17595772831716688</v>
+      </c>
+      <c r="R18" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.13841043967691324</v>
+      </c>
+      <c r="S18" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>8.5694643150401331E-2</v>
+      </c>
+      <c r="T18" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.19676818089013062</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.6806411084469189E-2</v>
+      </c>
+      <c r="V18" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12963954290442861</v>
+      </c>
+      <c r="W18" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.59693337218572329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.56479456098237046</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95832493023763066</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29615873202368592</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1918737566668351E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6665102995707064</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63429893594467202</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9566111751386051E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24667815068020327</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42656368801252709</v>
+      </c>
+      <c r="L19" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.14281190974389385</v>
+      </c>
+      <c r="M19" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.24231857545577862</v>
+      </c>
+      <c r="N19" s="44">
+        <f ca="1">E19/SUM($C19:$K19)</f>
+        <v>7.4885625729233754E-2</v>
+      </c>
+      <c r="O19" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>2.3242239497333714E-2</v>
+      </c>
+      <c r="P19" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.16853138348235353</v>
+      </c>
+      <c r="Q19" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.16038653458917773</v>
+      </c>
+      <c r="R19" s="44">
+        <f ca="1">I19/SUM($C19:$K19)</f>
+        <v>1.7590235386460613E-2</v>
+      </c>
+      <c r="S19" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>6.2374144909358407E-2</v>
+      </c>
+      <c r="T19" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.10785935120640977</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.0977643188111877E-2</v>
+      </c>
+      <c r="V19" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.14483660859089417</v>
+      </c>
+      <c r="W19" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.58464045158121436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.27765200701855419</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63141716457286456</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40137510375052721</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90677740643079108</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39471118381356896</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43897458091002695</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80533394450770901</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95943319029503271</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87523420684563302</v>
+      </c>
+      <c r="L20" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>4.8788693924766188E-2</v>
+      </c>
+      <c r="M20" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.11095190383093678</v>
+      </c>
+      <c r="N20" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>7.052917533780742E-2</v>
+      </c>
+      <c r="O20" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.15933789139614896</v>
+      </c>
+      <c r="P20" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>6.9358198928759981E-2</v>
+      </c>
+      <c r="Q20" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>7.7136112570368051E-2</v>
+      </c>
+      <c r="R20" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.14151236199486794</v>
+      </c>
+      <c r="S20" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.16859050566646272</v>
+      </c>
+      <c r="T20" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.15379515634988206</v>
+      </c>
+      <c r="U20">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3478522230200501E-2</v>
+      </c>
+      <c r="V20" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.11609703799064169</v>
+      </c>
+      <c r="W20" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.32840370314697676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.37885100725326271</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96355627583470371</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32418789648927826</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98527002518520335</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39812001432817878</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3684434469850308E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.77878485818489895</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84491167295685821</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1683961241951053</v>
+      </c>
+      <c r="L21" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>7.6756331351356927E-2</v>
+      </c>
+      <c r="M21" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.19521934313931022</v>
+      </c>
+      <c r="N21" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>6.5681423901813168E-2</v>
+      </c>
+      <c r="O21" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.19961861279444693</v>
+      </c>
+      <c r="P21" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>8.0660289011591349E-2</v>
+      </c>
+      <c r="Q21" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.8980742711408975E-2</v>
+      </c>
+      <c r="R21" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.15778410900805337</v>
+      </c>
+      <c r="S21" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.17118159669759572</v>
+      </c>
+      <c r="T21" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>3.4117551384423413E-2</v>
+      </c>
+      <c r="U21">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.6757756262271738E-2</v>
+      </c>
+      <c r="V21" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12945175264271913</v>
+      </c>
+      <c r="W21" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.19271886416391315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3043712940913887E-2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60787850484595285</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74617961653070508</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90942443143779783</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19116046759594973</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58526194323125302</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96008499300752592</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89865858119270636</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75568416572554453</v>
+      </c>
+      <c r="L22" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.3015434272054352E-3</v>
+      </c>
+      <c r="M22" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.10725924310855367</v>
+      </c>
+      <c r="N22" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.13166226516332641</v>
+      </c>
+      <c r="O22" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.16046656593847544</v>
+      </c>
+      <c r="P22" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>3.3729975485503924E-2</v>
+      </c>
+      <c r="Q22" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.10326858500636361</v>
+      </c>
+      <c r="R22" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.16940554543208386</v>
+      </c>
+      <c r="S22" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.15856694793997231</v>
+      </c>
+      <c r="T22" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.13333932849851515</v>
+      </c>
+      <c r="U22">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2902545344648348E-2</v>
+      </c>
+      <c r="V22" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.11358937161833561</v>
+      </c>
+      <c r="W22" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.39308058887969327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.53856219089713808</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75704786825649739</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67674634006557688</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.3611467240948034E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20661582206171958</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49056161803114029</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75269611708676676</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88539951745472822</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95676418318525913</v>
+      </c>
+      <c r="L23" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.10070337974286575</v>
+      </c>
+      <c r="M23" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.14155705738192434</v>
+      </c>
+      <c r="N23" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.12654182715591836</v>
+      </c>
+      <c r="O23" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.56341411980618E-2</v>
+      </c>
+      <c r="P23" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>3.863418550660886E-2</v>
+      </c>
+      <c r="Q23" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>9.1727963349175948E-2</v>
+      </c>
+      <c r="R23" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.14074334253524742</v>
+      </c>
+      <c r="S23" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.16555696879104367</v>
+      </c>
+      <c r="T23" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.17890113433915386</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.4585666345611654E-2</v>
+      </c>
+      <c r="V23" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12077113208714926</v>
+      </c>
+      <c r="W23" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.34366406258831123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.17640566363687427</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90782568490808713</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90042726014544061</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38484609381763735</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75530957179105362</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88243268628584359</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96902554999838908</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36381635575581894</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22821402097831289</v>
+      </c>
+      <c r="L24" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>3.1680328316669233E-2</v>
+      </c>
+      <c r="M24" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.16303453732299292</v>
+      </c>
+      <c r="N24" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.16170586952018762</v>
+      </c>
+      <c r="O24" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>6.9113714107430294E-2</v>
+      </c>
+      <c r="P24" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.13564448397937739</v>
+      </c>
+      <c r="Q24" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.15847426121443578</v>
+      </c>
+      <c r="R24" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.17402529453012916</v>
+      </c>
+      <c r="S24" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>6.5337026939475323E-2</v>
+      </c>
+      <c r="T24" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>4.0984484069302406E-2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.7372375295393754E-2</v>
+      </c>
+      <c r="V24" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.1318043068165595</v>
+      </c>
+      <c r="W24" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.57245824627922215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.96295794880772767</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60632673463132158</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49952939898925686</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33749947733376029</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61174632656128336</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.71619223666774834</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6370683270784081</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51502384760452236</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79082134440290508</v>
+      </c>
+      <c r="L25" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.16961949140089544</v>
+      </c>
+      <c r="M25" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.10680095893934548</v>
+      </c>
+      <c r="N25" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>8.7989223933672117E-2</v>
+      </c>
+      <c r="O25" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.9448587307783657E-2</v>
+      </c>
+      <c r="P25" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.10775558881482311</v>
+      </c>
+      <c r="Q25" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.12615313376795126</v>
+      </c>
+      <c r="R25" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.11221591322907799</v>
+      </c>
+      <c r="S25" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>9.0718481734506168E-2</v>
+      </c>
+      <c r="T25" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.13929862087194464</v>
+      </c>
+      <c r="U25">
+        <f ca="1">+(L25^2*$B$4^2)+(M25^2*$C$4^2)+(N25^2*$D$4^2)+(O25^2*$E$4^2)+(P25^2*$F$4^2)+(Q25^2*$G$4^2)+(R25^2*$H$4^2)+(S25^2*$I$4^2)+(T25^2*$J$4^2)+(2*L25*M25*$B$8)+(2*L25*N25*$E$8)+(2*L25*O25*$H$8)+(2*L25*P25*$B$11)+(2*L25*Q25*$E$11)+(2*L25*R25*$H$11)+(2*L25*S25*$K$8)+(2*L25*T25*$K$11)</f>
+        <v>1.8481006102844037E-2</v>
+      </c>
+      <c r="V25" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.13594486420179336</v>
+      </c>
+      <c r="W25" s="44">
+        <f ca="1">SUMPRODUCT(L25:T25,$B$3:$J$3)</f>
+        <v>0.47598506600023183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.70597306642362745</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17988786725985373</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49126273551629185</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4616780842556254</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84024625552440579</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52702754692046139</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56515287613670573</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41118507151625483</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58623505400991294</v>
+      </c>
+      <c r="L26" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.14804468349925784</v>
+      </c>
+      <c r="M26" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.7723028880907818E-2</v>
+      </c>
+      <c r="N26" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.10301927885567132</v>
+      </c>
+      <c r="O26" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>9.6815288164483815E-2</v>
+      </c>
+      <c r="P26" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.17620217665060767</v>
+      </c>
+      <c r="Q26" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.1105192677880589</v>
+      </c>
+      <c r="R26" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.11851426443250171</v>
+      </c>
+      <c r="S26" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>8.6226750944795441E-2</v>
+      </c>
+      <c r="T26" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.12293526078371543</v>
+      </c>
+      <c r="U26">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.0135361126289216E-2</v>
+      </c>
+      <c r="V26" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.14189912306384847</v>
+      </c>
+      <c r="W26" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.45546622273716963</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99235454336685169</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81831209929663506</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78323350669326619</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21375345666585377</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72877287317709949</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96652835029595896</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56589541550566946</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13469449836655234</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.688749807964852E-3</v>
+      </c>
+      <c r="L27" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.19060891999323412</v>
+      </c>
+      <c r="M27" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.15717929293206881</v>
+      </c>
+      <c r="N27" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.15044148667552104</v>
+      </c>
+      <c r="O27" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>4.1057216689576889E-2</v>
+      </c>
+      <c r="P27" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.13998082762372249</v>
+      </c>
+      <c r="Q27" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.18564829095023311</v>
+      </c>
+      <c r="R27" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.10869574256464397</v>
+      </c>
+      <c r="S27" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>2.5871774391814192E-2</v>
+      </c>
+      <c r="T27" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>5.1644817918542667E-4</v>
+      </c>
+      <c r="U27">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.7326186641292414E-2</v>
+      </c>
+      <c r="V27" s="5">
+        <f ca="1">SQRT(U27)</f>
+        <v>0.16530634180603118</v>
+      </c>
+      <c r="W27" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.66441072180284122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.9886606655884993</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81090965941551618</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73940767839202926</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43084351500720053</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97958731161045953</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4086414739586276</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73470947367150774</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1841789980536771</v>
+      </c>
+      <c r="K28">
+        <f ca="1">RAND()</f>
+        <v>0.8138466963970058</v>
+      </c>
+      <c r="L28" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.16232071710917029</v>
+      </c>
+      <c r="M28" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.13313712379639228</v>
+      </c>
+      <c r="N28" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.12139775432572555</v>
+      </c>
+      <c r="O28" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>7.0736938114328365E-2</v>
+      </c>
+      <c r="P28" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.16083103174434993</v>
+      </c>
+      <c r="Q28" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>6.7091752916082006E-2</v>
+      </c>
+      <c r="R28" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.12062639162676879</v>
+      </c>
+      <c r="S28" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>3.0238956682600234E-2</v>
+      </c>
+      <c r="T28" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.13361933368458256</v>
+      </c>
+      <c r="U28">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.8676576182218858E-2</v>
+      </c>
+      <c r="V28" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.1366622705146481</v>
+      </c>
+      <c r="W28" s="44">
+        <f ca="1">SUMPRODUCT(L28:T28,$B$3:$J$3)</f>
+        <v>0.34719581439574215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.24113748848734418</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75244003099898737</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15412156933780241</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44694420236750876</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13104380526735504</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10246588782479438</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18617343182679036</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72809866847390703</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98355832181820591</v>
+      </c>
+      <c r="L29" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>6.4717810624968369E-2</v>
+      </c>
+      <c r="M29" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.20194401019231631</v>
+      </c>
+      <c r="N29" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>4.1363997776522929E-2</v>
+      </c>
+      <c r="O29" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.11995335287845994</v>
+      </c>
+      <c r="P29" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>3.5170260029116225E-2</v>
+      </c>
+      <c r="Q29" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>2.7500360750055394E-2</v>
+      </c>
+      <c r="R29" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.9966253608878575E-2</v>
+      </c>
+      <c r="S29" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.1954111409145701</v>
+      </c>
+      <c r="T29" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.26397281322511218</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1917145164814508E-2</v>
+      </c>
+      <c r="V29" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.10916567759517873</v>
+      </c>
+      <c r="W29" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.1777292679162194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.73219303824662219</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60600728989916453</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6450591877357255E-3</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62779271417081495</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.91063061764887754</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24962581668191119</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85724100842372142</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87717973545533701</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4205560498130464</v>
+      </c>
+      <c r="L30" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.13844031980110064</v>
+      </c>
+      <c r="M30" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.11458159069136119</v>
+      </c>
+      <c r="N30" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.4454991833615116E-3</v>
+      </c>
+      <c r="O30" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.11870069719146162</v>
+      </c>
+      <c r="P30" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.17217862960002814</v>
+      </c>
+      <c r="Q30" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>4.7198315316970489E-2</v>
+      </c>
+      <c r="R30" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.16208392207196115</v>
+      </c>
+      <c r="S30" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.16585386196826751</v>
+      </c>
+      <c r="T30" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>7.9517164175487626E-2</v>
+      </c>
+      <c r="U30">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.9953893777011969E-2</v>
+      </c>
+      <c r="V30" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.14125825206695702</v>
+      </c>
+      <c r="W30" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.26839035742147832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.42797406786919534</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.43540094558216669</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.62700819366938276</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25029624068759015</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50743105795263699</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50531862847292319</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.94673682289519445</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.22189897295541905</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.19450446219413098</v>
+      </c>
+      <c r="L31" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.10396376863510114</v>
+      </c>
+      <c r="M31" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.10576791111522106</v>
+      </c>
+      <c r="N31" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.15231328174509789</v>
+      </c>
+      <c r="O31" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>6.0802142958421991E-2</v>
+      </c>
+      <c r="P31" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.12326551786164823</v>
+      </c>
+      <c r="Q31" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.12275236497184731</v>
+      </c>
+      <c r="R31" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.22998199050669921</v>
+      </c>
+      <c r="S31" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>5.3903858239734814E-2</v>
+      </c>
+      <c r="T31" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>4.724916396622849E-2</v>
+      </c>
+      <c r="U31">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.0246794588125748E-2</v>
+      </c>
+      <c r="V31" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.14229123159255369</v>
+      </c>
+      <c r="W31" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.47630961154691231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>18</v>
+      </c>
+      <c r="B32" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.34516280138227973</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.22010883662316916</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.89945029531254173</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.94706762519255505</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3590630207345904</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.69191274219486743</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.28736417489426869</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.57253681887978836</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15345549646063728</v>
+      </c>
+      <c r="L32" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>7.7112021500849268E-2</v>
+      </c>
+      <c r="M32" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>4.9174005061497099E-2</v>
+      </c>
+      <c r="N32" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.20094410589242231</v>
+      </c>
+      <c r="O32" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.21158218320207392</v>
+      </c>
+      <c r="P32" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>8.0217437290932531E-2</v>
+      </c>
+      <c r="Q32" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.1545786221434387</v>
+      </c>
+      <c r="R32" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>6.4199364312374274E-2</v>
+      </c>
+      <c r="S32" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.12790912378355923</v>
+      </c>
+      <c r="T32" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>3.428313681285259E-2</v>
+      </c>
+      <c r="U32">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.1688680321168184E-2</v>
+      </c>
+      <c r="V32" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.14727077212117884</v>
+      </c>
+      <c r="W32" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.57481812495132434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>19</v>
+      </c>
+      <c r="B33" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.41097594101489232</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.29096346306905529</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.9555020116372851</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.85776259185719694</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.47122200001427017</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.22904963520206023</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.22383200497835742</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.73110901690573882</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1200719242384829</v>
+      </c>
+      <c r="L33" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>9.5787678372219576E-2</v>
+      </c>
+      <c r="M33" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>6.7815927496144887E-2</v>
+      </c>
+      <c r="N33" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.2227023780241299</v>
+      </c>
+      <c r="O33" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.19992189096432125</v>
+      </c>
+      <c r="P33" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.10982944954835043</v>
+      </c>
+      <c r="Q33" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>5.3385443278817467E-2</v>
+      </c>
+      <c r="R33" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>5.2169350958427584E-2</v>
+      </c>
+      <c r="S33" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.17040227511483175</v>
+      </c>
+      <c r="T33" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>2.7985606242757029E-2</v>
+      </c>
+      <c r="U33">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.0043433261633839E-2</v>
+      </c>
+      <c r="V33" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.14157483272684393</v>
+      </c>
+      <c r="W33" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.3084624271430087</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.44652366546669631</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.63569976546909457</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.95637894825413139</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.56912182612957996</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.12596653098140764</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99368859508275043</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.41752717941599993</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.44815890193856789</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15326804730297006</v>
+      </c>
+      <c r="L34" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>9.4077600999998109E-2</v>
+      </c>
+      <c r="M34" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.13393491435462201</v>
+      </c>
+      <c r="N34" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.20149847378102886</v>
+      </c>
+      <c r="O34" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.11990767840501455</v>
+      </c>
+      <c r="P34" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>2.6539755801379E-2</v>
+      </c>
+      <c r="Q34" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.20935920399367078</v>
+      </c>
+      <c r="R34" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>8.796836187998805E-2</v>
+      </c>
+      <c r="S34" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>9.4422127250763765E-2</v>
+      </c>
+      <c r="T34" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>3.229188353353489E-2</v>
+      </c>
+      <c r="U34">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.3939203554818472E-2</v>
+      </c>
+      <c r="V34" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.15472298974237303</v>
+      </c>
+      <c r="W34" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.70000517013385899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>21</v>
+      </c>
+      <c r="B35" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3947298692365625</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.33175834115271208</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.59587951676629591</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.4189755310337522E-2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.48897076014284191</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.66378552569735383</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25362607008859983</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.5011359705887117E-2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.5783457747753387E-3</v>
+      </c>
+      <c r="L35" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.13935595838358217</v>
+      </c>
+      <c r="M35" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.11712440629968227</v>
+      </c>
+      <c r="N35" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.21037009765872902</v>
+      </c>
+      <c r="O35" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.2070396718108124E-2</v>
+      </c>
+      <c r="P35" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.17262688793489142</v>
+      </c>
+      <c r="Q35" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.23434372542825666</v>
+      </c>
+      <c r="R35" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>8.9540485336508671E-2</v>
+      </c>
+      <c r="S35" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>2.2951696954567644E-2</v>
+      </c>
+      <c r="T35" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.616345285674023E-3</v>
+      </c>
+      <c r="U35">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.1577941370518343E-2</v>
+      </c>
+      <c r="V35" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.17770183277197324</v>
+      </c>
+      <c r="W35" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.79680437728138054</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>22</v>
+      </c>
+      <c r="B36" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.38356152355293027</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.58891030233829667</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.18738125771579461</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.72733282338228433</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.77769783250507185</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.89178951093087877</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.71629746907371972</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.27204238647239076</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.58545543657084953</v>
+      </c>
+      <c r="L36" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>7.4761499923917354E-2</v>
+      </c>
+      <c r="M36" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.11478684596835745</v>
+      </c>
+      <c r="N36" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>3.6523225152247922E-2</v>
+      </c>
+      <c r="O36" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.14176732930943597</v>
+      </c>
+      <c r="P36" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.15158417326923365</v>
+      </c>
+      <c r="Q36" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.17382223544225944</v>
+      </c>
+      <c r="R36" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.13961638457270117</v>
+      </c>
+      <c r="S36" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>5.3024862001705232E-2</v>
+      </c>
+      <c r="T36" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.11411344436014191</v>
+      </c>
+      <c r="U36">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.9985236126969681E-2</v>
+      </c>
+      <c r="V36" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.14136914842698065</v>
+      </c>
+      <c r="W36" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.62115311480171509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>23</v>
+      </c>
+      <c r="B37" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.36766495991038883</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.48637697248328549</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.27373032887602489</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.7514110643834631E-2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.49075119444760817</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.81534891519853581</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.2332511464827793E-2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.41974709398476795</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.78155124036915025</v>
+      </c>
+      <c r="L37" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>9.6373077330958859E-2</v>
+      </c>
+      <c r="M37" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.12749010836538205</v>
+      </c>
+      <c r="N37" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>7.1750743282763776E-2</v>
+      </c>
+      <c r="O37" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>2.2939374355075849E-2</v>
+      </c>
+      <c r="P37" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.12863668820734794</v>
+      </c>
+      <c r="Q37" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.21372089435798747</v>
+      </c>
+      <c r="R37" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.420238325058308E-2</v>
+      </c>
+      <c r="S37" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.11002495086259718</v>
+      </c>
+      <c r="T37" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.20486177998730373</v>
+      </c>
+      <c r="U37">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.1595546534925097E-2</v>
+      </c>
+      <c r="V37" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.14695423279009387</v>
+      </c>
+      <c r="W37" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.6964445978985595</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>24</v>
+      </c>
+      <c r="B38" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.87940226227305784</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99734793530064658</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.85533735488801621</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.98702168772897725</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.20087994056906333</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.39476487654366754</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.43448860175004855</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.20545333561019974</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.93998607292212255</v>
+      </c>
+      <c r="L38" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.14918569859921588</v>
+      </c>
+      <c r="M38" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.16919452548339323</v>
+      </c>
+      <c r="N38" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.14510322101872483</v>
+      </c>
+      <c r="O38" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.16744273506394849</v>
+      </c>
+      <c r="P38" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>3.4078163718732138E-2</v>
+      </c>
+      <c r="Q38" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>6.6969663845728958E-2</v>
+      </c>
+      <c r="R38" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>7.3708572704752479E-2</v>
+      </c>
+      <c r="S38" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>3.4854014729643307E-2</v>
+      </c>
+      <c r="T38" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.15946340483586066</v>
+      </c>
+      <c r="U38">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.6750471709538625E-2</v>
+      </c>
+      <c r="V38" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12942361341555345</v>
+      </c>
+      <c r="W38" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.33907245162549127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>25</v>
+      </c>
+      <c r="B39" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.38405360550549095</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.56799478006976711</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.19993904920661887</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.71957755131713474</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15928992643467998</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.77668881358576747</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.8667644071302355</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.26693445465900834</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.39638912402721871</v>
+      </c>
+      <c r="L39" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>8.8539929392503602E-2</v>
+      </c>
+      <c r="M39" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.13094582892014739</v>
+      </c>
+      <c r="N39" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>4.6094058344428791E-2</v>
+      </c>
+      <c r="O39" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.16589180435422013</v>
+      </c>
+      <c r="P39" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>3.6722787228883377E-2</v>
+      </c>
+      <c r="Q39" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.17905826616135762</v>
+      </c>
+      <c r="R39" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.19982434302689828</v>
+      </c>
+      <c r="S39" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>6.1539215956135956E-2</v>
+      </c>
+      <c r="T39" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>9.1383766615425022E-2</v>
+      </c>
+      <c r="U39">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.1235197660361541E-2</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.14572301692032574</v>
+      </c>
+      <c r="W39" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.61333309378730594</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>26</v>
+      </c>
+      <c r="B40" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.51192089262586649</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.40864988015633441</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.311594065495304</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.43024070909919943</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.3072212996926242E-2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.94441789777323393</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.62889446279879468</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.20451994587213285</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.88848662381932952</v>
+      </c>
+      <c r="L40" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.11603456109214733</v>
+      </c>
+      <c r="M40" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>9.2626634636991848E-2</v>
+      </c>
+      <c r="N40" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>7.0627476138367951E-2</v>
+      </c>
+      <c r="O40" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>9.7520520383967871E-2</v>
+      </c>
+      <c r="P40" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>1.8829565100591597E-2</v>
+      </c>
+      <c r="Q40" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.21406650487260953</v>
+      </c>
+      <c r="R40" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.1425483781094124</v>
+      </c>
+      <c r="S40" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>4.6357518311343007E-2</v>
+      </c>
+      <c r="T40" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.20138884135456847</v>
+      </c>
+      <c r="U40">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.2076412138677243E-2</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.148581331730057</v>
+      </c>
+      <c r="W40" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.69346698136098694</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>27</v>
+      </c>
+      <c r="B41" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.65065916270261814</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4120850170206164</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.67376946833517004</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.40402851204622026</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.34516039254031927</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.61051198420575925</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.73819420893802667</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1058516690558261</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.62862258185772091</v>
+      </c>
+      <c r="L41" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.14241099261509871</v>
+      </c>
+      <c r="M41" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>9.0193821404061028E-2</v>
+      </c>
+      <c r="N41" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.14746918860068917</v>
+      </c>
+      <c r="O41" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>8.843047903346167E-2</v>
+      </c>
+      <c r="P41" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>7.5545903186719526E-2</v>
+      </c>
+      <c r="Q41" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.13362390427735046</v>
+      </c>
+      <c r="R41" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.16156995254000586</v>
+      </c>
+      <c r="S41" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>2.3167953552810958E-2</v>
+      </c>
+      <c r="T41" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.13758780478980251</v>
+      </c>
+      <c r="U41">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.9334203044736518E-2</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.13904748485584525</v>
+      </c>
+      <c r="W41" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.50664664253705649</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>28</v>
+      </c>
+      <c r="B42" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.5477060476685911</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.31795705044965417</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.49351882352937393</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.60444764020050812</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.22298954144068861</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.17252937106382071</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16925685660577183</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1830809368991253</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3049606823254094</v>
+      </c>
+      <c r="L42" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.18157324054227889</v>
+      </c>
+      <c r="M42" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.10540780451331011</v>
+      </c>
+      <c r="N42" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.1636093164175961</v>
+      </c>
+      <c r="O42" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.20038397829733065</v>
+      </c>
+      <c r="P42" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>7.3924569244343791E-2</v>
+      </c>
+      <c r="Q42" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>5.7196222546979335E-2</v>
+      </c>
+      <c r="R42" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>5.6111332107301487E-2</v>
+      </c>
+      <c r="S42" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>6.0694233952306609E-2</v>
+      </c>
+      <c r="T42" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.10109930237855301</v>
+      </c>
+      <c r="U42">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.0766421934957847E-2</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.14410559300373407</v>
+      </c>
+      <c r="W42" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.32959820232377141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>29</v>
+      </c>
+      <c r="B43" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.89772057625356871</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2326994748453598</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.74375498100233284</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.79469882349408827</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.81545759126885731</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.92772825875054998</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45432948731666178</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.38510076211885369</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25885035166407044</v>
+      </c>
+      <c r="L43" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.16291563248093721</v>
+      </c>
+      <c r="M43" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>4.2229601420771735E-2</v>
+      </c>
+      <c r="N43" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.13497441892945672</v>
+      </c>
+      <c r="O43" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.14421955437593367</v>
+      </c>
+      <c r="P43" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.1479867931705095</v>
+      </c>
+      <c r="Q43" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.16836133652582477</v>
+      </c>
+      <c r="R43" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>8.2450350074216264E-2</v>
+      </c>
+      <c r="S43" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>6.9886929061279371E-2</v>
+      </c>
+      <c r="T43" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>4.6975383961070719E-2</v>
+      </c>
+      <c r="U43">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.5144823060450568E-2</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.15857119240407624</v>
+      </c>
+      <c r="W43" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.62368472337993541</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>30</v>
+      </c>
+      <c r="B44" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.65808559472830175</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35797842942038993</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.19005470918594236</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.97169932604233789</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.98325904007428722</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.51285010016174004</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35091751334223831</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.24074473865398371</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.21587917538569845</v>
+      </c>
+      <c r="L44" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.14684596713769379</v>
+      </c>
+      <c r="M44" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>7.9879713374326325E-2</v>
+      </c>
+      <c r="N44" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>4.2409023693954738E-2</v>
+      </c>
+      <c r="O44" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.2168260913819936</v>
+      </c>
+      <c r="P44" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.21940553910194804</v>
+      </c>
+      <c r="Q44" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.11443795390477503</v>
+      </c>
+      <c r="R44" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>7.8304132540039345E-2</v>
+      </c>
+      <c r="S44" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>5.3720054449073941E-2</v>
+      </c>
+      <c r="T44" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>4.8171524416195176E-2</v>
+      </c>
+      <c r="U44">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.5231208579986737E-2</v>
+      </c>
+      <c r="V44" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.15884334603623387</v>
+      </c>
+      <c r="W44" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.50404818550944275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>31</v>
+      </c>
+      <c r="B45" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.70544737585338912</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.64194881677290261</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4648665651557663</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.89205915984546402</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.37931311750856345</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.88078943087790063</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.14659439325878731</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.69878046947290928</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.28983242466763248</v>
+      </c>
+      <c r="L45" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.13833300323718767</v>
+      </c>
+      <c r="M45" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.12588140630805933</v>
+      </c>
+      <c r="N45" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>9.1156888895873533E-2</v>
+      </c>
+      <c r="O45" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.17492619133693052</v>
+      </c>
+      <c r="P45" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>7.4380491739365173E-2</v>
+      </c>
+      <c r="Q45" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.17271628099192957</v>
+      </c>
+      <c r="R45" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.8746074294613115E-2</v>
+      </c>
+      <c r="S45" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.13702567229588636</v>
+      </c>
+      <c r="T45" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>5.6833990900154729E-2</v>
+      </c>
+      <c r="U45">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.2629703779597526E-2</v>
+      </c>
+      <c r="V45" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.15043172464476209</v>
+      </c>
+      <c r="W45" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.61089272696910424</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>32</v>
+      </c>
+      <c r="B46" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45755591920580341</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.46659890128951276</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.43786971341834224</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.43295367853828359</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.77764370226653712</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.26331608889962355</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.21840215489911419</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.62042736573476798</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.98075024081195128</v>
+      </c>
+      <c r="L46" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>9.8282498810209049E-2</v>
+      </c>
+      <c r="M46" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.10022492123023931</v>
+      </c>
+      <c r="N46" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>9.4053923863037556E-2</v>
+      </c>
+      <c r="O46" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>9.2997965078614117E-2</v>
+      </c>
+      <c r="P46" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.16703699599261596</v>
+      </c>
+      <c r="Q46" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>5.6560000882309447E-2</v>
+      </c>
+      <c r="R46" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.6912538179545486E-2</v>
+      </c>
+      <c r="S46" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.13326710304718328</v>
+      </c>
+      <c r="T46" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.21066405291624576</v>
+      </c>
+      <c r="U46">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.4565919655634146E-2</v>
+      </c>
+      <c r="V46" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12068935187345298</v>
+      </c>
+      <c r="W46" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.29743478797356265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>33</v>
+      </c>
+      <c r="B47" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.64238329958216933</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.44699718026224355</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.14002007706691977</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.17814058080082662</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.63680749565501149</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.26818179334053127</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.34685984306603301</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.79792409970335254</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4247393165337634</v>
+      </c>
+      <c r="L47" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.1654751200110976</v>
+      </c>
+      <c r="M47" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.11514451278018574</v>
+      </c>
+      <c r="N47" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>3.6068557622345156E-2</v>
+      </c>
+      <c r="O47" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>4.5888232159891025E-2</v>
+      </c>
+      <c r="P47" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.16403881737900097</v>
+      </c>
+      <c r="Q47" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>6.9082453523745951E-2</v>
+      </c>
+      <c r="R47" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>8.9349573993774883E-2</v>
+      </c>
+      <c r="S47" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.20554174780701945</v>
+      </c>
+      <c r="T47" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.10941098472293931</v>
+      </c>
+      <c r="U47">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.9723180647600477E-2</v>
+      </c>
+      <c r="V47" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.14043924183646278</v>
+      </c>
+      <c r="W47" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.31163281444979812</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>34</v>
+      </c>
+      <c r="B48" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99077712067739487</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.98594997481875302</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.76052144179481529</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.207477446375683E-2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.93249743549802333</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16810119122495015</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.13442004763344551</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.85581602998761552</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.34262166903592839</v>
+      </c>
+      <c r="L48" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.19079899028138675</v>
+      </c>
+      <c r="M48" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.18986940224735932</v>
+      </c>
+      <c r="N48" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.14645748287221816</v>
+      </c>
+      <c r="O48" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>4.2510516144079946E-3</v>
+      </c>
+      <c r="P48" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.17957577483355863</v>
+      </c>
+      <c r="Q48" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>3.2372101536711002E-2</v>
+      </c>
+      <c r="R48" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.5885952376960723E-2</v>
+      </c>
+      <c r="S48" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.16480884649074393</v>
+      </c>
+      <c r="T48" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>6.5980397746653471E-2</v>
+      </c>
+      <c r="U48">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.1706692216507523E-2</v>
+      </c>
+      <c r="V48" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.14733191173845375</v>
+      </c>
+      <c r="W48" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.23686724315596128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>35</v>
+      </c>
+      <c r="B49" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.12032483461646792</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.8789973579181067E-2</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.81997675591689667</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.7574667756205774</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.26966407992561636</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.24400211442559161</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.11670425774449167</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.41314463354723574</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.59325582018569623</v>
+      </c>
+      <c r="L49" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>3.5046110061250642E-2</v>
+      </c>
+      <c r="M49" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>2.8773812970860946E-2</v>
+      </c>
+      <c r="N49" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.23882846568731381</v>
+      </c>
+      <c r="O49" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.22062165363247649</v>
+      </c>
+      <c r="P49" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>7.8543029415023197E-2</v>
+      </c>
+      <c r="Q49" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>7.1068661632440785E-2</v>
+      </c>
+      <c r="R49" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>3.3991571852700866E-2</v>
+      </c>
+      <c r="S49" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.12033353168249313</v>
+      </c>
+      <c r="T49" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.17279316306543993</v>
+      </c>
+      <c r="U49">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.5387814477336614E-2</v>
+      </c>
+      <c r="V49" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12404762987391825</v>
+      </c>
+      <c r="W49" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.3507354638664763</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>36</v>
+      </c>
+      <c r="B50" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.9494081415362412</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.21745901417041547</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3579075602762114</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.23591618882864218</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25590390512186756</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.73823452776475806</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.43922870946267822</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.18874278294512459</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.29867370438016216</v>
+      </c>
+      <c r="L50" s="44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.25788800999237921</v>
+      </c>
+      <c r="M50" s="44">
+        <f t="shared" ca="1" si="14"/>
+        <v>5.9068455352162492E-2</v>
+      </c>
+      <c r="N50" s="44">
+        <f t="shared" ca="1" si="15"/>
+        <v>9.7218534835301226E-2</v>
+      </c>
+      <c r="O50" s="44">
+        <f t="shared" ca="1" si="16"/>
+        <v>6.4081983080068711E-2</v>
+      </c>
+      <c r="P50" s="44">
+        <f t="shared" ca="1" si="17"/>
+        <v>6.9511252278046595E-2</v>
+      </c>
+      <c r="Q50" s="44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.20052685978114707</v>
+      </c>
+      <c r="R50" s="44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.11930782227290086</v>
+      </c>
+      <c r="S50" s="44">
+        <f t="shared" ca="1" si="20"/>
+        <v>5.1268257101083355E-2</v>
+      </c>
+      <c r="T50" s="44">
+        <f t="shared" ca="1" si="21"/>
+        <v>8.1128825306910388E-2</v>
+      </c>
+      <c r="U50">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.7552643877012034E-2</v>
+      </c>
+      <c r="V50" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.1659898908880057</v>
+      </c>
+      <c r="W50" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.68181656295323079</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>